--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-794902.7327025661</v>
+        <v>-796581.9546604638</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7310893.191902019</v>
+        <v>7310893.191902022</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>250.8875013875138</v>
       </c>
       <c r="C11" t="n">
-        <v>233.4265514950407</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.0840297962949</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.0297054657446</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>280.6526818299032</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>178.9149114046652</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.28406442165242</v>
+        <v>13.28406442165247</v>
       </c>
       <c r="T11" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410706</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.2750153991285</v>
       </c>
       <c r="V11" t="n">
-        <v>195.9059181941681</v>
+        <v>48.2582480679782</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.3946284414462</v>
       </c>
       <c r="X11" t="n">
-        <v>71.90777670216936</v>
+        <v>237.8847604025023</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.3915983800868</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.6868433739005</v>
+        <v>34.68684337390056</v>
       </c>
       <c r="C12" t="n">
-        <v>40.8621587123489</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.59872528867197</v>
       </c>
       <c r="E12" t="n">
-        <v>25.79874017943411</v>
+        <v>25.79874017943416</v>
       </c>
       <c r="F12" t="n">
-        <v>13.22287211741704</v>
+        <v>13.2228721174171</v>
       </c>
       <c r="G12" t="n">
-        <v>3.997056892560172</v>
+        <v>3.997056892560228</v>
       </c>
       <c r="H12" t="n">
-        <v>97.74744323520987</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.97275987398877</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T12" t="n">
-        <v>165.4327723243276</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U12" t="n">
-        <v>93.99634970009458</v>
+        <v>225.8426899760614</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.8486428849528</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>142.9886680865875</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.83635550133752</v>
+        <v>73.83635550133758</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.98563990597046</v>
+        <v>47.98563990597052</v>
       </c>
       <c r="C13" t="n">
-        <v>35.400480822661</v>
+        <v>35.40048082266105</v>
       </c>
       <c r="D13" t="n">
-        <v>16.76913274224552</v>
+        <v>16.76913274224557</v>
       </c>
       <c r="E13" t="n">
-        <v>14.58762237060233</v>
+        <v>14.58762237060239</v>
       </c>
       <c r="F13" t="n">
-        <v>13.57470774696441</v>
+        <v>13.57470774696446</v>
       </c>
       <c r="G13" t="n">
-        <v>34.8869888712458</v>
+        <v>34.88698887124585</v>
       </c>
       <c r="H13" t="n">
-        <v>19.19917853512085</v>
+        <v>19.1991785351209</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.87481582136284</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>202.099184810074</v>
+        <v>70.25284453410715</v>
       </c>
       <c r="T13" t="n">
-        <v>90.72565279517214</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U13" t="n">
-        <v>154.4040899780924</v>
+        <v>228.278905799455</v>
       </c>
       <c r="V13" t="n">
         <v>120.2913030478612</v>
@@ -1591,10 +1591,10 @@
         <v>154.6766580606242</v>
       </c>
       <c r="X13" t="n">
-        <v>93.86331511307031</v>
+        <v>93.86331511307037</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.73831307612795</v>
+        <v>86.73831307612801</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>250.8875013875137</v>
       </c>
       <c r="C14" t="n">
-        <v>233.4265514950407</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>222.8367013447161</v>
       </c>
       <c r="E14" t="n">
-        <v>250.0840297962949</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.65746803392291</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.395787535243037</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.28406442165243</v>
+        <v>13.28406442165241</v>
       </c>
       <c r="T14" t="n">
         <v>78.97624508410701</v>
@@ -1670,7 +1670,7 @@
         <v>217.3946284414462</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.8847604025022</v>
       </c>
       <c r="Y14" t="n">
         <v>254.3915983800867</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.6868433739005</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.8621587123489</v>
       </c>
       <c r="D15" t="n">
         <v>15.59872528867191</v>
@@ -1701,7 +1701,7 @@
         <v>135.843397168527</v>
       </c>
       <c r="H15" t="n">
-        <v>3.334590208628051</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>11.97275987398877</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T15" t="n">
         <v>194.1181924004609</v>
       </c>
       <c r="U15" t="n">
-        <v>93.99634970009458</v>
+        <v>225.8426899760614</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9542468734584</v>
       </c>
       <c r="W15" t="n">
         <v>119.8486428849528</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>73.92664492751064</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.83635550133752</v>
+        <v>77.17094570996538</v>
       </c>
     </row>
     <row r="16">
@@ -1768,13 +1768,13 @@
         <v>35.400480822661</v>
       </c>
       <c r="D16" t="n">
-        <v>90.64394856360852</v>
+        <v>16.76913274224552</v>
       </c>
       <c r="E16" t="n">
         <v>14.58762237060233</v>
       </c>
       <c r="F16" t="n">
-        <v>13.57470774696441</v>
+        <v>87.44952356832763</v>
       </c>
       <c r="G16" t="n">
         <v>34.8869888712458</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>70.25284453410711</v>
+        <v>70.2528445341071</v>
       </c>
       <c r="T16" t="n">
         <v>90.72565279517214</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1744143620467651</v>
+        <v>171.9112563034067</v>
       </c>
       <c r="C17" t="n">
         <v>154.4503064109337</v>
@@ -1853,13 +1853,13 @@
         <v>171.1077847121879</v>
       </c>
       <c r="F17" t="n">
-        <v>196.0534603816376</v>
+        <v>24.31661844027778</v>
       </c>
       <c r="G17" t="n">
         <v>201.6764367457962</v>
       </c>
       <c r="H17" t="n">
-        <v>99.9386663205582</v>
+        <v>99.93866632055818</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>5.622298349466862</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I18" t="n">
-        <v>37.74776461340433</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S18" t="n">
         <v>143.8191001499556</v>
@@ -1977,16 +1977,16 @@
         <v>194.1181924004609</v>
       </c>
       <c r="U18" t="n">
-        <v>15.02010461598758</v>
+        <v>225.8426899760614</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>21.97800178935142</v>
       </c>
       <c r="W18" t="n">
-        <v>40.87239780084576</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>23.25704427336021</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0455188110877</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.099184810074</v>
       </c>
       <c r="T19" t="n">
-        <v>11.74940771106513</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U19" t="n">
-        <v>75.42784489398544</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>138.9833392043481</v>
       </c>
       <c r="W19" t="n">
-        <v>75.70041297651716</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.38216696383562</v>
+        <v>14.88707002896331</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>7.762067992020945</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>154.4503064109337</v>
       </c>
       <c r="D20" t="n">
-        <v>12.42238463426959</v>
+        <v>143.8604562606091</v>
       </c>
       <c r="E20" t="n">
         <v>171.1077847121879</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0534603816376</v>
+        <v>24.3166184402766</v>
       </c>
       <c r="G20" t="n">
         <v>201.6764367457962</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.29877031502145</v>
       </c>
       <c r="V20" t="n">
         <v>116.9296731100611</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>39.75354353775078</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.018805009040534</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U21" t="n">
-        <v>15.02010461598758</v>
+        <v>225.8426899760614</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>141.5360017837233</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2504302540593</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>41.31505796375416</v>
       </c>
       <c r="W22" t="n">
-        <v>195.6358988452474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.88707002896331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.762067992020945</v>
+        <v>96.70694868261506</v>
       </c>
     </row>
     <row r="23">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.843397168527</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1181924004609</v>
+        <v>55.40367291717384</v>
       </c>
       <c r="U24" t="n">
         <v>225.8426899760614</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.04708257829032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>17.07728748360728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.099184810074</v>
       </c>
       <c r="T25" t="n">
-        <v>11.74940771106513</v>
+        <v>25.19083864695149</v>
       </c>
       <c r="U25" t="n">
         <v>286.2504302540593</v>
       </c>
       <c r="V25" t="n">
-        <v>41.31505796375416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>75.70041297651716</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>14.88707002896331</v>
       </c>
       <c r="Y25" t="n">
         <v>7.762067992020945</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.7575965793736</v>
+        <v>303.7575965793735</v>
       </c>
       <c r="C26" t="n">
         <v>286.2966466869005</v>
       </c>
       <c r="D26" t="n">
-        <v>275.706796536576</v>
+        <v>275.7067965365759</v>
       </c>
       <c r="E26" t="n">
-        <v>302.9541249881548</v>
+        <v>302.9541249881547</v>
       </c>
       <c r="F26" t="n">
         <v>327.8998006576044</v>
@@ -2573,7 +2573,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I26" t="n">
-        <v>23.40940617061017</v>
+        <v>23.40940617061011</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.15415961351223</v>
+        <v>66.15415961351218</v>
       </c>
       <c r="T26" t="n">
         <v>131.8463402759668</v>
       </c>
       <c r="U26" t="n">
-        <v>172.1451105909883</v>
+        <v>172.1451105909882</v>
       </c>
       <c r="V26" t="n">
-        <v>248.7760133860279</v>
+        <v>248.7760133860278</v>
       </c>
       <c r="W26" t="n">
-        <v>270.264723633306</v>
+        <v>270.2647236333059</v>
       </c>
       <c r="X26" t="n">
         <v>290.754855594362</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.2616935719466</v>
+        <v>307.2616935719465</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8557350978303</v>
+        <v>100.8557350978302</v>
       </c>
       <c r="C28" t="n">
-        <v>88.27057601452081</v>
+        <v>88.27057601452076</v>
       </c>
       <c r="D28" t="n">
-        <v>69.63922793410534</v>
+        <v>69.63922793410528</v>
       </c>
       <c r="E28" t="n">
-        <v>67.45771756246215</v>
+        <v>67.45771756246209</v>
       </c>
       <c r="F28" t="n">
-        <v>66.44480293882422</v>
+        <v>66.44480293882417</v>
       </c>
       <c r="G28" t="n">
-        <v>87.75708406310562</v>
+        <v>87.75708406310557</v>
       </c>
       <c r="H28" t="n">
-        <v>72.06927372698067</v>
+        <v>72.06927372698061</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6532580358588</v>
+        <v>38.65325803585875</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76861952194142</v>
+        <v>41.76861952194137</v>
       </c>
       <c r="S28" t="n">
         <v>123.1229397259669</v>
       </c>
       <c r="T28" t="n">
-        <v>143.595747987032</v>
+        <v>143.5957479870319</v>
       </c>
       <c r="U28" t="n">
-        <v>207.2741851699523</v>
+        <v>207.2741851699522</v>
       </c>
       <c r="V28" t="n">
-        <v>173.161398239721</v>
+        <v>173.1613982397209</v>
       </c>
       <c r="W28" t="n">
-        <v>207.546753252484</v>
+        <v>207.5467532524839</v>
       </c>
       <c r="X28" t="n">
         <v>146.7334103049301</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6084082679878</v>
+        <v>139.6084082679877</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I29" t="n">
-        <v>23.40940617061017</v>
+        <v>23.40940617061014</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.15415961351223</v>
+        <v>66.15415961351221</v>
       </c>
       <c r="T29" t="n">
         <v>131.8463402759668</v>
@@ -2886,10 +2886,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H30" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I30" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S30" t="n">
         <v>143.8191001499556</v>
@@ -2968,7 +2968,7 @@
         <v>72.06927372698067</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6532580358588</v>
+        <v>38.65325803585879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76861952194142</v>
+        <v>41.7686195219414</v>
       </c>
       <c r="S31" t="n">
         <v>123.1229397259669</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.7575965793736</v>
+        <v>303.7575965793735</v>
       </c>
       <c r="C32" t="n">
         <v>286.2966466869005</v>
       </c>
       <c r="D32" t="n">
-        <v>275.706796536576</v>
+        <v>275.7067965365759</v>
       </c>
       <c r="E32" t="n">
-        <v>302.9541249881548</v>
+        <v>302.9541249881547</v>
       </c>
       <c r="F32" t="n">
         <v>327.8998006576044</v>
@@ -3047,7 +3047,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I32" t="n">
-        <v>23.40940617061017</v>
+        <v>23.40940617061013</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.15415961351225</v>
+        <v>66.15415961351221</v>
       </c>
       <c r="T32" t="n">
         <v>131.8463402759668</v>
@@ -3089,7 +3089,7 @@
         <v>248.7760133860279</v>
       </c>
       <c r="W32" t="n">
-        <v>270.264723633306</v>
+        <v>270.2647236333059</v>
       </c>
       <c r="X32" t="n">
         <v>290.754855594362</v>
@@ -3123,10 +3123,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H33" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I33" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S33" t="n">
         <v>143.8191001499556</v>
@@ -3187,25 +3187,25 @@
         <v>100.8557350978303</v>
       </c>
       <c r="C34" t="n">
-        <v>88.27057601452081</v>
+        <v>88.2705760145208</v>
       </c>
       <c r="D34" t="n">
-        <v>69.63922793410534</v>
+        <v>69.63922793410532</v>
       </c>
       <c r="E34" t="n">
-        <v>67.45771756246215</v>
+        <v>67.45771756246214</v>
       </c>
       <c r="F34" t="n">
-        <v>66.44480293882422</v>
+        <v>66.44480293882421</v>
       </c>
       <c r="G34" t="n">
-        <v>87.75708406310561</v>
+        <v>87.75708406310559</v>
       </c>
       <c r="H34" t="n">
         <v>72.06927372698065</v>
       </c>
       <c r="I34" t="n">
-        <v>38.6532580358588</v>
+        <v>38.65325803585878</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76861952194143</v>
+        <v>41.76861952194139</v>
       </c>
       <c r="S34" t="n">
         <v>123.1229397259669</v>
       </c>
       <c r="T34" t="n">
-        <v>143.595747987032</v>
+        <v>143.5957479870319</v>
       </c>
       <c r="U34" t="n">
-        <v>207.2741851699523</v>
+        <v>207.2741851699522</v>
       </c>
       <c r="V34" t="n">
         <v>173.161398239721</v>
@@ -3360,10 +3360,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H36" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I36" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S36" t="n">
         <v>143.8191001499556</v>
@@ -3424,13 +3424,13 @@
         <v>27.35713500366853</v>
       </c>
       <c r="C37" t="n">
-        <v>39.52516943253438</v>
+        <v>14.77197592035907</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.62433963180519</v>
+        <v>202.099184810074</v>
       </c>
       <c r="T37" t="n">
         <v>70.09714789287021</v>
       </c>
       <c r="U37" t="n">
-        <v>133.7755850757905</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V37" t="n">
-        <v>99.66279814555924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>134.0481531583222</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>73.23481021076839</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.10980817382602</v>
+        <v>84.82211915430214</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>58.34774018180508</v>
       </c>
       <c r="U38" t="n">
-        <v>98.64651049682652</v>
+        <v>98.64651049682654</v>
       </c>
       <c r="V38" t="n">
         <v>175.2774132918661</v>
@@ -3597,10 +3597,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H39" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I39" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S39" t="n">
         <v>143.8191001499556</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.77197592035907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>25.76610813581317</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7333291472126</v>
+        <v>14.25848396894387</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.62433963180519</v>
+        <v>49.62433963180517</v>
       </c>
       <c r="T40" t="n">
         <v>70.09714789287021</v>
@@ -3721,7 +3721,7 @@
         <v>99.66279814555924</v>
       </c>
       <c r="W40" t="n">
-        <v>134.0481531583222</v>
+        <v>152.1765261172825</v>
       </c>
       <c r="X40" t="n">
         <v>73.23481021076839</v>
@@ -3834,10 +3834,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H42" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I42" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S42" t="n">
         <v>143.8191001499556</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7333291472126</v>
+        <v>14.25848396894387</v>
       </c>
       <c r="H43" t="n">
-        <v>25.7661081358132</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.62433963180519</v>
+        <v>49.62433963180517</v>
       </c>
       <c r="T43" t="n">
-        <v>70.09714789287021</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U43" t="n">
-        <v>133.7755850757905</v>
+        <v>152.4878960562665</v>
       </c>
       <c r="V43" t="n">
         <v>99.66279814555924</v>
       </c>
       <c r="W43" t="n">
-        <v>134.0481531583222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.23481021076839</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10980817382602</v>
       </c>
     </row>
     <row r="44">
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553995</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,10 +4071,10 @@
         <v>135.843397168527</v>
       </c>
       <c r="H45" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I45" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.018805009040534</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S45" t="n">
         <v>143.8191001499556</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1181924004597</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U45" t="n">
         <v>225.8426899760614</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>27.35713500366853</v>
       </c>
       <c r="C46" t="n">
         <v>14.77197592035907</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>24.75319351217567</v>
       </c>
       <c r="G46" t="n">
         <v>14.25848396894387</v>
       </c>
       <c r="H46" t="n">
-        <v>18.71231098047574</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>70.09714789287021</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7755850757905</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V46" t="n">
         <v>99.66279814555924</v>
@@ -4201,7 +4201,7 @@
         <v>73.23481021076839</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10980817382602</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.534785276258</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="C11" t="n">
-        <v>842.7503898267219</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="D11" t="n">
-        <v>842.7503898267219</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="E11" t="n">
-        <v>590.1402587193531</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="F11" t="n">
-        <v>312.3324754206212</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="G11" t="n">
-        <v>28.84491801667863</v>
+        <v>209.5670507486637</v>
       </c>
       <c r="H11" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="I11" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="J11" t="n">
-        <v>85.19169484519307</v>
+        <v>85.19169484519261</v>
       </c>
       <c r="K11" t="n">
-        <v>220.3794251620415</v>
+        <v>220.3794251620411</v>
       </c>
       <c r="L11" t="n">
-        <v>424.993520594864</v>
+        <v>424.9935205948636</v>
       </c>
       <c r="M11" t="n">
         <v>684.3355641233946</v>
       </c>
       <c r="N11" t="n">
-        <v>952.487841428809</v>
+        <v>952.4878414288092</v>
       </c>
       <c r="O11" t="n">
         <v>1192.361171737509</v>
       </c>
       <c r="P11" t="n">
-        <v>1362.586508631394</v>
+        <v>1362.586508631395</v>
       </c>
       <c r="Q11" t="n">
         <v>1442.245900833932</v>
@@ -5066,25 +5066,25 @@
         <v>1442.245900833932</v>
       </c>
       <c r="S11" t="n">
-        <v>1428.827653943373</v>
+        <v>1428.827653943374</v>
       </c>
       <c r="T11" t="n">
         <v>1349.053669009932</v>
       </c>
       <c r="U11" t="n">
-        <v>1349.053669009932</v>
+        <v>1228.573855475459</v>
       </c>
       <c r="V11" t="n">
-        <v>1151.168903157237</v>
+        <v>1179.828150356289</v>
       </c>
       <c r="W11" t="n">
-        <v>1151.168903157237</v>
+        <v>960.2376165770505</v>
       </c>
       <c r="X11" t="n">
-        <v>1078.534785276258</v>
+        <v>719.9499798068462</v>
       </c>
       <c r="Y11" t="n">
-        <v>1078.534785276258</v>
+        <v>462.98876932191</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.2422278162835</v>
+        <v>262.5074366696072</v>
       </c>
       <c r="C12" t="n">
-        <v>319.9673200260321</v>
+        <v>88.05440738848012</v>
       </c>
       <c r="D12" t="n">
-        <v>171.0329103647808</v>
+        <v>72.29811921810439</v>
       </c>
       <c r="E12" t="n">
-        <v>144.9735768502009</v>
+        <v>46.23878570352443</v>
       </c>
       <c r="F12" t="n">
-        <v>131.6171403679615</v>
+        <v>32.88234922128493</v>
       </c>
       <c r="G12" t="n">
-        <v>127.5797091633553</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="H12" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="J12" t="n">
-        <v>43.58682532468368</v>
+        <v>43.58682532468372</v>
       </c>
       <c r="K12" t="n">
-        <v>146.9379176954381</v>
+        <v>146.9379176954382</v>
       </c>
       <c r="L12" t="n">
-        <v>332.22875686005</v>
+        <v>332.2287568600501</v>
       </c>
       <c r="M12" t="n">
-        <v>689.1846173164481</v>
+        <v>567.8112947331479</v>
       </c>
       <c r="N12" t="n">
-        <v>945.4109688850745</v>
+        <v>824.0376463017743</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.588227490717</v>
+        <v>1036.214904907417</v>
       </c>
       <c r="P12" t="n">
-        <v>1391.253745766727</v>
+        <v>1187.172794572714</v>
       </c>
       <c r="Q12" t="n">
         <v>1442.245900833932</v>
@@ -5145,25 +5145,25 @@
         <v>1442.245900833932</v>
       </c>
       <c r="S12" t="n">
-        <v>1430.152203991518</v>
+        <v>1296.974082500644</v>
       </c>
       <c r="T12" t="n">
-        <v>1263.048393562905</v>
+        <v>1100.895100277956</v>
       </c>
       <c r="U12" t="n">
-        <v>1168.102585785031</v>
+        <v>872.7711710092069</v>
       </c>
       <c r="V12" t="n">
-        <v>932.9504775532887</v>
+        <v>637.6190627774643</v>
       </c>
       <c r="W12" t="n">
-        <v>678.7131208250871</v>
+        <v>516.5598275401381</v>
       </c>
       <c r="X12" t="n">
-        <v>470.8616206195543</v>
+        <v>372.1268294728781</v>
       </c>
       <c r="Y12" t="n">
-        <v>396.279443345476</v>
+        <v>297.5446521987997</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.6207878033856</v>
+        <v>164.620787803386</v>
       </c>
       <c r="C13" t="n">
-        <v>128.8627263663543</v>
+        <v>128.8627263663546</v>
       </c>
       <c r="D13" t="n">
-        <v>111.9242084448942</v>
+        <v>111.9242084448944</v>
       </c>
       <c r="E13" t="n">
-        <v>97.18923635337667</v>
+        <v>97.18923635337686</v>
       </c>
       <c r="F13" t="n">
-        <v>83.47741034634191</v>
+        <v>83.47741034634204</v>
       </c>
       <c r="G13" t="n">
-        <v>48.23802764811384</v>
+        <v>48.2380276481139</v>
       </c>
       <c r="H13" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="I13" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="J13" t="n">
-        <v>28.84491801667863</v>
+        <v>28.84491801667864</v>
       </c>
       <c r="K13" t="n">
         <v>151.4530484065835</v>
       </c>
       <c r="L13" t="n">
-        <v>363.8756774067681</v>
+        <v>363.8756774067682</v>
       </c>
       <c r="M13" t="n">
-        <v>598.2346789316421</v>
+        <v>598.2346789316423</v>
       </c>
       <c r="N13" t="n">
-        <v>832.4557636402321</v>
+        <v>832.4557636402325</v>
       </c>
       <c r="O13" t="n">
         <v>1032.780549635224</v>
@@ -5221,28 +5221,28 @@
         <v>1199.629851044149</v>
       </c>
       <c r="R13" t="n">
-        <v>1125.008824961964</v>
+        <v>1199.629851044149</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8682342447175</v>
+        <v>1128.667381817778</v>
       </c>
       <c r="T13" t="n">
-        <v>829.2261607142407</v>
+        <v>903.8471867964258</v>
       </c>
       <c r="U13" t="n">
-        <v>673.2624334636422</v>
+        <v>673.262433463643</v>
       </c>
       <c r="V13" t="n">
-        <v>551.7560667486309</v>
+        <v>551.7560667486316</v>
       </c>
       <c r="W13" t="n">
-        <v>395.517018202546</v>
+        <v>395.5170182025465</v>
       </c>
       <c r="X13" t="n">
-        <v>300.7055887954042</v>
+        <v>300.7055887954047</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0911311427497</v>
+        <v>213.0911311427501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>758.1831581822184</v>
+        <v>264.4738028387666</v>
       </c>
       <c r="C14" t="n">
-        <v>522.3987627326824</v>
+        <v>264.4738028387666</v>
       </c>
       <c r="D14" t="n">
-        <v>297.3111856168074</v>
+        <v>39.38622572289165</v>
       </c>
       <c r="E14" t="n">
-        <v>44.70105450943879</v>
+        <v>39.38622572289165</v>
       </c>
       <c r="F14" t="n">
-        <v>32.92583427315121</v>
+        <v>39.38622572289165</v>
       </c>
       <c r="G14" t="n">
         <v>32.92583427315121</v>
@@ -5276,25 +5276,25 @@
         <v>32.92583427315121</v>
       </c>
       <c r="J14" t="n">
-        <v>89.27261110166565</v>
+        <v>89.27261110166567</v>
       </c>
       <c r="K14" t="n">
-        <v>224.4603414185141</v>
+        <v>224.4603414185142</v>
       </c>
       <c r="L14" t="n">
-        <v>629.0393334184929</v>
+        <v>429.0744368513368</v>
       </c>
       <c r="M14" t="n">
-        <v>888.3813769470239</v>
+        <v>688.4164803798678</v>
       </c>
       <c r="N14" t="n">
-        <v>1156.533654252438</v>
+        <v>956.5687576852823</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.406984561138</v>
+        <v>1364.025956815529</v>
       </c>
       <c r="P14" t="n">
-        <v>1566.632321455023</v>
+        <v>1534.251293709414</v>
       </c>
       <c r="Q14" t="n">
         <v>1646.291713657561</v>
@@ -5318,10 +5318,10 @@
         <v>1015.144368667155</v>
       </c>
       <c r="X14" t="n">
-        <v>1015.144368667155</v>
+        <v>774.8567318969504</v>
       </c>
       <c r="Y14" t="n">
-        <v>758.1831581822184</v>
+        <v>517.8955214120142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.4909903367144</v>
+        <v>532.9445959078307</v>
       </c>
       <c r="C15" t="n">
-        <v>495.0379610555874</v>
+        <v>491.6696881175793</v>
       </c>
       <c r="D15" t="n">
-        <v>479.2816728852117</v>
+        <v>475.9133999472036</v>
       </c>
       <c r="E15" t="n">
-        <v>320.0442178797562</v>
+        <v>316.6759449417481</v>
       </c>
       <c r="F15" t="n">
-        <v>173.5096599066412</v>
+        <v>170.1413869686331</v>
       </c>
       <c r="G15" t="n">
-        <v>36.29410721115934</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="H15" t="n">
         <v>32.92583427315121</v>
@@ -5355,22 +5355,22 @@
         <v>32.92583427315121</v>
       </c>
       <c r="J15" t="n">
-        <v>47.66774158115626</v>
+        <v>47.66774158115629</v>
       </c>
       <c r="K15" t="n">
-        <v>412.8394185943636</v>
+        <v>151.0188339519108</v>
       </c>
       <c r="L15" t="n">
-        <v>740.3555208776925</v>
+        <v>336.3096731165227</v>
       </c>
       <c r="M15" t="n">
-        <v>975.9380587507901</v>
+        <v>571.8922109896205</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.164410319416</v>
+        <v>828.1185625582469</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.341668925059</v>
+        <v>1235.575761688493</v>
       </c>
       <c r="P15" t="n">
         <v>1595.299558590356</v>
@@ -5382,25 +5382,25 @@
         <v>1646.291713657561</v>
       </c>
       <c r="S15" t="n">
-        <v>1634.198016815148</v>
+        <v>1501.019895324272</v>
       </c>
       <c r="T15" t="n">
-        <v>1438.11903459246</v>
+        <v>1304.940913101584</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.173226814587</v>
+        <v>1076.816983832835</v>
       </c>
       <c r="V15" t="n">
-        <v>1108.021118582844</v>
+        <v>974.8429970919683</v>
       </c>
       <c r="W15" t="n">
-        <v>986.9618833455179</v>
+        <v>853.7837618546423</v>
       </c>
       <c r="X15" t="n">
         <v>779.1103831399851</v>
       </c>
       <c r="Y15" t="n">
-        <v>704.5282058659068</v>
+        <v>701.1599329278988</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.322730142043</v>
+        <v>243.3227301420433</v>
       </c>
       <c r="C16" t="n">
-        <v>207.5646687050117</v>
+        <v>207.564668705012</v>
       </c>
       <c r="D16" t="n">
-        <v>116.0051247013668</v>
+        <v>190.6261507835519</v>
       </c>
       <c r="E16" t="n">
-        <v>101.2701526098493</v>
+        <v>175.8911786920343</v>
       </c>
       <c r="F16" t="n">
         <v>87.5583266028145</v>
       </c>
       <c r="G16" t="n">
-        <v>52.31894390458642</v>
+        <v>52.31894390458641</v>
       </c>
       <c r="H16" t="n">
         <v>32.92583427315121</v>
@@ -5446,13 +5446,13 @@
         <v>602.3155951881147</v>
       </c>
       <c r="N16" t="n">
-        <v>836.5366798967048</v>
+        <v>836.5366798967049</v>
       </c>
       <c r="O16" t="n">
-        <v>1036.861465891696</v>
+        <v>1036.861465891697</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.753245257706</v>
+        <v>1184.753245257707</v>
       </c>
       <c r="Q16" t="n">
         <v>1203.710767300621</v>
@@ -5461,25 +5461,25 @@
         <v>1203.710767300621</v>
       </c>
       <c r="S16" t="n">
-        <v>1132.74829807425</v>
+        <v>1132.748298074251</v>
       </c>
       <c r="T16" t="n">
         <v>1041.106224543774</v>
       </c>
       <c r="U16" t="n">
-        <v>751.9643758022996</v>
+        <v>751.9643758022999</v>
       </c>
       <c r="V16" t="n">
-        <v>630.4580090872884</v>
+        <v>630.4580090872886</v>
       </c>
       <c r="W16" t="n">
-        <v>474.2189605412033</v>
+        <v>474.2189605412036</v>
       </c>
       <c r="X16" t="n">
-        <v>379.4075311340616</v>
+        <v>379.4075311340619</v>
       </c>
       <c r="Y16" t="n">
-        <v>291.7930734814071</v>
+        <v>291.7930734814074</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1009.781501779942</v>
+        <v>836.3099442634166</v>
       </c>
       <c r="C17" t="n">
-        <v>853.7710912638472</v>
+        <v>680.299533747322</v>
       </c>
       <c r="D17" t="n">
-        <v>708.4574990814137</v>
+        <v>534.9859415648885</v>
       </c>
       <c r="E17" t="n">
-        <v>535.6213529074865</v>
+        <v>362.1497953909613</v>
       </c>
       <c r="F17" t="n">
-        <v>337.587554542196</v>
+        <v>337.5875545421959</v>
       </c>
       <c r="G17" t="n">
         <v>133.8739820716949</v>
@@ -5513,25 +5513,25 @@
         <v>32.92583427315121</v>
       </c>
       <c r="J17" t="n">
-        <v>89.27261110166559</v>
+        <v>89.27261110166567</v>
       </c>
       <c r="K17" t="n">
-        <v>224.460341418514</v>
+        <v>224.4603414185142</v>
       </c>
       <c r="L17" t="n">
-        <v>429.0744368513364</v>
+        <v>429.0744368513368</v>
       </c>
       <c r="M17" t="n">
-        <v>688.4164803798674</v>
+        <v>688.4164803798678</v>
       </c>
       <c r="N17" t="n">
-        <v>956.5687576852818</v>
+        <v>1095.873679510114</v>
       </c>
       <c r="O17" t="n">
-        <v>1196.442087993981</v>
+        <v>1396.406984561138</v>
       </c>
       <c r="P17" t="n">
-        <v>1366.667424887866</v>
+        <v>1566.632321455023</v>
       </c>
       <c r="Q17" t="n">
         <v>1646.291713657561</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>630.1751924665903</v>
+        <v>601.5826223353212</v>
       </c>
       <c r="C18" t="n">
-        <v>630.1751924665903</v>
+        <v>427.1295930541942</v>
       </c>
       <c r="D18" t="n">
-        <v>481.240782805339</v>
+        <v>278.1951833929429</v>
       </c>
       <c r="E18" t="n">
-        <v>322.0033277998835</v>
+        <v>278.1951833929429</v>
       </c>
       <c r="F18" t="n">
-        <v>175.4687698267685</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="G18" t="n">
-        <v>169.7896805848827</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="H18" t="n">
-        <v>71.05488943820609</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="I18" t="n">
         <v>32.92583427315121</v>
       </c>
       <c r="J18" t="n">
-        <v>47.66774158115624</v>
+        <v>47.66774158115629</v>
       </c>
       <c r="K18" t="n">
-        <v>151.0188339519107</v>
+        <v>412.8394185943636</v>
       </c>
       <c r="L18" t="n">
-        <v>336.3096731165224</v>
+        <v>598.1302577589755</v>
       </c>
       <c r="M18" t="n">
-        <v>571.89221098962</v>
+        <v>833.7127956320733</v>
       </c>
       <c r="N18" t="n">
-        <v>828.1185625582464</v>
+        <v>1089.9391472007</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.84235946011</v>
+        <v>1302.116405806342</v>
       </c>
       <c r="P18" t="n">
         <v>1595.299558590356</v>
@@ -5625,19 +5625,19 @@
         <v>1297.85121107225</v>
       </c>
       <c r="U18" t="n">
-        <v>1282.679388227818</v>
+        <v>1069.727281803501</v>
       </c>
       <c r="V18" t="n">
         <v>1047.527279996076</v>
       </c>
       <c r="W18" t="n">
-        <v>1006.242029692191</v>
+        <v>793.2899232678742</v>
       </c>
       <c r="X18" t="n">
-        <v>798.3905294866584</v>
+        <v>769.7979593553891</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3905294866584</v>
+        <v>769.7979593553891</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>483.5267983901908</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="C19" t="n">
-        <v>483.5267983901908</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="D19" t="n">
-        <v>333.4101589778551</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="E19" t="n">
-        <v>185.497065395462</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="F19" t="n">
-        <v>185.497065395462</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="G19" t="n">
-        <v>185.497065395462</v>
+        <v>32.92583427315121</v>
       </c>
       <c r="H19" t="n">
         <v>32.92583427315121</v>
@@ -5683,13 +5683,13 @@
         <v>602.3155951881147</v>
       </c>
       <c r="N19" t="n">
-        <v>836.5366798967048</v>
+        <v>836.5366798967049</v>
       </c>
       <c r="O19" t="n">
-        <v>1036.861465891696</v>
+        <v>1036.861465891697</v>
       </c>
       <c r="P19" t="n">
-        <v>1184.753245257706</v>
+        <v>1184.753245257707</v>
       </c>
       <c r="Q19" t="n">
         <v>1203.710767300621</v>
@@ -5698,25 +5698,25 @@
         <v>1203.710767300621</v>
       </c>
       <c r="S19" t="n">
-        <v>1203.710767300621</v>
+        <v>999.5701765833751</v>
       </c>
       <c r="T19" t="n">
-        <v>1191.842678703586</v>
+        <v>774.7499815620226</v>
       </c>
       <c r="U19" t="n">
-        <v>1115.652936386429</v>
+        <v>485.6081328205486</v>
       </c>
       <c r="V19" t="n">
-        <v>860.9684481805419</v>
+        <v>345.2209215030252</v>
       </c>
       <c r="W19" t="n">
-        <v>784.5033845678984</v>
+        <v>55.8037514660646</v>
       </c>
       <c r="X19" t="n">
-        <v>704.319377533721</v>
+        <v>40.76630699236429</v>
       </c>
       <c r="Y19" t="n">
-        <v>483.5267983901908</v>
+        <v>32.92583427315121</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>877.0157728644476</v>
+        <v>836.3099442634156</v>
       </c>
       <c r="C20" t="n">
-        <v>721.0053623483529</v>
+        <v>680.2995337473209</v>
       </c>
       <c r="D20" t="n">
-        <v>708.457499081414</v>
+        <v>534.9859415648874</v>
       </c>
       <c r="E20" t="n">
-        <v>535.6213529074868</v>
+        <v>362.1497953909602</v>
       </c>
       <c r="F20" t="n">
-        <v>337.5875545421962</v>
+        <v>337.587554542196</v>
       </c>
       <c r="G20" t="n">
         <v>133.8739820716949</v>
@@ -5750,22 +5750,22 @@
         <v>32.92583427315121</v>
       </c>
       <c r="J20" t="n">
-        <v>89.27261110166559</v>
+        <v>89.27261110166567</v>
       </c>
       <c r="K20" t="n">
-        <v>224.460341418514</v>
+        <v>424.4252379856696</v>
       </c>
       <c r="L20" t="n">
-        <v>429.0744368513364</v>
+        <v>629.0393334184922</v>
       </c>
       <c r="M20" t="n">
-        <v>836.5316359815827</v>
+        <v>888.3813769470233</v>
       </c>
       <c r="N20" t="n">
-        <v>1104.683913286997</v>
+        <v>1156.533654252438</v>
       </c>
       <c r="O20" t="n">
-        <v>1344.557243595696</v>
+        <v>1396.406984561138</v>
       </c>
       <c r="P20" t="n">
         <v>1566.632321455023</v>
@@ -5783,19 +5783,19 @@
         <v>1646.291713657561</v>
       </c>
       <c r="U20" t="n">
-        <v>1646.291713657561</v>
+        <v>1605.585885056529</v>
       </c>
       <c r="V20" t="n">
-        <v>1528.180932738307</v>
+        <v>1487.475104137275</v>
       </c>
       <c r="W20" t="n">
-        <v>1388.36438389251</v>
+        <v>1347.658555291478</v>
       </c>
       <c r="X20" t="n">
-        <v>1227.850732055747</v>
+        <v>1187.144903454715</v>
       </c>
       <c r="Y20" t="n">
-        <v>1050.663506504252</v>
+        <v>1009.95767790322</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>662.0852861941</v>
+        <v>171.8157199024044</v>
       </c>
       <c r="C21" t="n">
-        <v>487.632256912973</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="D21" t="n">
-        <v>338.6978472517217</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="E21" t="n">
-        <v>179.4603922462662</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="F21" t="n">
-        <v>32.92583427315121</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="G21" t="n">
-        <v>32.92583427315121</v>
+        <v>131.6606254198279</v>
       </c>
       <c r="H21" t="n">
         <v>32.92583427315121</v>
@@ -5829,19 +5829,19 @@
         <v>32.92583427315121</v>
       </c>
       <c r="J21" t="n">
-        <v>57.67256811954326</v>
+        <v>172.497866568161</v>
       </c>
       <c r="K21" t="n">
-        <v>161.0236604902977</v>
+        <v>275.8489589389155</v>
       </c>
       <c r="L21" t="n">
-        <v>568.4808596205439</v>
+        <v>545.0755803530885</v>
       </c>
       <c r="M21" t="n">
-        <v>975.9380587507901</v>
+        <v>780.6581182261863</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.164410319416</v>
+        <v>1036.884469794813</v>
       </c>
       <c r="O21" t="n">
         <v>1444.341668925059</v>
@@ -5853,28 +5853,28 @@
         <v>1646.291713657561</v>
       </c>
       <c r="R21" t="n">
-        <v>1639.202011628227</v>
+        <v>1646.291713657561</v>
       </c>
       <c r="S21" t="n">
-        <v>1639.202011628227</v>
+        <v>1501.019895324272</v>
       </c>
       <c r="T21" t="n">
-        <v>1639.202011628227</v>
+        <v>1304.940913101584</v>
       </c>
       <c r="U21" t="n">
-        <v>1624.030188783795</v>
+        <v>1076.816983832835</v>
       </c>
       <c r="V21" t="n">
-        <v>1388.878080552052</v>
+        <v>841.6648756010927</v>
       </c>
       <c r="W21" t="n">
-        <v>1245.912422184655</v>
+        <v>587.4275188728911</v>
       </c>
       <c r="X21" t="n">
-        <v>1038.060921979122</v>
+        <v>379.5760186673583</v>
       </c>
       <c r="Y21" t="n">
-        <v>830.3006232141681</v>
+        <v>171.8157199024044</v>
       </c>
     </row>
     <row r="22">
@@ -5920,13 +5920,13 @@
         <v>602.3155951881147</v>
       </c>
       <c r="N22" t="n">
-        <v>836.5366798967048</v>
+        <v>836.5366798967049</v>
       </c>
       <c r="O22" t="n">
-        <v>1036.861465891696</v>
+        <v>1036.861465891697</v>
       </c>
       <c r="P22" t="n">
-        <v>1184.753245257706</v>
+        <v>1184.753245257707</v>
       </c>
       <c r="Q22" t="n">
         <v>1203.710767300621</v>
@@ -5938,22 +5938,22 @@
         <v>1203.710767300621</v>
       </c>
       <c r="T22" t="n">
-        <v>978.8905722792687</v>
+        <v>978.890572279269</v>
       </c>
       <c r="U22" t="n">
-        <v>689.7487235377946</v>
+        <v>689.7487235377951</v>
       </c>
       <c r="V22" t="n">
-        <v>435.0642353319078</v>
+        <v>648.0163417562252</v>
       </c>
       <c r="W22" t="n">
-        <v>237.4522162963043</v>
+        <v>358.5991717192646</v>
       </c>
       <c r="X22" t="n">
-        <v>222.414771822604</v>
+        <v>130.6096208212472</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.5742991033909</v>
+        <v>32.92583427315121</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>1013.321737647626</v>
       </c>
       <c r="C23" t="n">
-        <v>857.311327131531</v>
+        <v>857.3113271315309</v>
       </c>
       <c r="D23" t="n">
-        <v>711.9977349490978</v>
+        <v>711.9977349490974</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1615887751707</v>
+        <v>539.1615887751702</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1277904098802</v>
+        <v>341.1277904098797</v>
       </c>
       <c r="G23" t="n">
-        <v>137.4142179393791</v>
+        <v>137.414217939379</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="J23" t="n">
-        <v>92.81284696934979</v>
+        <v>92.81284696934986</v>
       </c>
       <c r="K23" t="n">
-        <v>228.0005772861982</v>
+        <v>228.0005772861984</v>
       </c>
       <c r="L23" t="n">
-        <v>594.6568391185644</v>
+        <v>525.0088457037488</v>
       </c>
       <c r="M23" t="n">
-        <v>853.9988826470953</v>
+        <v>784.3508892322799</v>
       </c>
       <c r="N23" t="n">
-        <v>1122.15115995251</v>
+        <v>1052.503166537694</v>
       </c>
       <c r="O23" t="n">
-        <v>1573.418777945348</v>
+        <v>1292.376496846394</v>
       </c>
       <c r="P23" t="n">
-        <v>1743.644114839233</v>
+        <v>1743.644114839232</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.597678440739</v>
+        <v>1782.597678440738</v>
       </c>
       <c r="V23" t="n">
         <v>1664.486897521485</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>491.1724927806572</v>
+        <v>481.853487503024</v>
       </c>
       <c r="C24" t="n">
-        <v>491.1724927806572</v>
+        <v>481.853487503024</v>
       </c>
       <c r="D24" t="n">
-        <v>342.2380831194059</v>
+        <v>332.9190778417727</v>
       </c>
       <c r="E24" t="n">
-        <v>183.0006281139504</v>
+        <v>173.6816228363172</v>
       </c>
       <c r="F24" t="n">
-        <v>36.46607014083541</v>
+        <v>173.6816228363172</v>
       </c>
       <c r="G24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="H24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="J24" t="n">
-        <v>176.0381024358452</v>
+        <v>51.20797744884048</v>
       </c>
       <c r="K24" t="n">
-        <v>279.3891948065996</v>
+        <v>154.559069819595</v>
       </c>
       <c r="L24" t="n">
-        <v>464.6800339712114</v>
+        <v>339.8499089842069</v>
       </c>
       <c r="M24" t="n">
-        <v>700.2625718443089</v>
+        <v>575.4324468573045</v>
       </c>
       <c r="N24" t="n">
-        <v>956.4889234129353</v>
+        <v>831.658798425931</v>
       </c>
       <c r="O24" t="n">
-        <v>1407.756541405774</v>
+        <v>1282.926416418769</v>
       </c>
       <c r="P24" t="n">
-        <v>1564.334837116075</v>
+        <v>1564.334837116074</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.303507041771</v>
+        <v>1823.30350704177</v>
       </c>
       <c r="R24" t="n">
-        <v>1823.303507041771</v>
+        <v>1816.213805012436</v>
       </c>
       <c r="S24" t="n">
-        <v>1823.303507041771</v>
+        <v>1670.941986679147</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.224524819083</v>
+        <v>1614.978680702204</v>
       </c>
       <c r="U24" t="n">
-        <v>1399.100595550334</v>
+        <v>1386.854751433455</v>
       </c>
       <c r="V24" t="n">
-        <v>1163.948487318591</v>
+        <v>1151.702643201712</v>
       </c>
       <c r="W24" t="n">
-        <v>909.7111305903898</v>
+        <v>897.4652864735108</v>
       </c>
       <c r="X24" t="n">
-        <v>701.8596303848569</v>
+        <v>689.613786267978</v>
       </c>
       <c r="Y24" t="n">
-        <v>659.3878298007253</v>
+        <v>481.853487503024</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.5651319881125</v>
+        <v>334.4958031355642</v>
       </c>
       <c r="C25" t="n">
-        <v>201.6289490602056</v>
+        <v>334.4958031355642</v>
       </c>
       <c r="D25" t="n">
         <v>184.3791637232285</v>
       </c>
       <c r="E25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="F25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="G25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="H25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="I25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.4660701408354</v>
       </c>
       <c r="K25" t="n">
         <v>159.0742005307403</v>
       </c>
       <c r="L25" t="n">
-        <v>371.4968295309249</v>
+        <v>371.496829530925</v>
       </c>
       <c r="M25" t="n">
-        <v>605.8558310557988</v>
+        <v>605.8558310557989</v>
       </c>
       <c r="N25" t="n">
-        <v>840.0769157643889</v>
+        <v>840.0769157643891</v>
       </c>
       <c r="O25" t="n">
         <v>1040.401701759381</v>
@@ -6166,31 +6166,31 @@
         <v>1188.293481125391</v>
       </c>
       <c r="Q25" t="n">
-        <v>1207.251003168305</v>
+        <v>1207.251003168306</v>
       </c>
       <c r="R25" t="n">
-        <v>1207.251003168305</v>
+        <v>1207.251003168306</v>
       </c>
       <c r="S25" t="n">
-        <v>1207.251003168305</v>
+        <v>1003.110412451059</v>
       </c>
       <c r="T25" t="n">
-        <v>1195.38291457127</v>
+        <v>977.6651208884821</v>
       </c>
       <c r="U25" t="n">
-        <v>906.2410658297961</v>
+        <v>688.5232721470081</v>
       </c>
       <c r="V25" t="n">
-        <v>864.5086840482262</v>
+        <v>433.8387839411213</v>
       </c>
       <c r="W25" t="n">
-        <v>788.0436204355826</v>
+        <v>357.3737203284776</v>
       </c>
       <c r="X25" t="n">
-        <v>560.0540695375653</v>
+        <v>342.3362758547773</v>
       </c>
       <c r="Y25" t="n">
-        <v>552.2135968183522</v>
+        <v>334.4958031355642</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1584.027061193445</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E26" t="n">
-        <v>999.5210798553337</v>
+        <v>999.5210798553339</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3091599991678</v>
+        <v>668.3091599991679</v>
       </c>
       <c r="G26" t="n">
         <v>331.4174660377912</v>
       </c>
       <c r="H26" t="n">
-        <v>97.29119674837182</v>
+        <v>97.29119674837173</v>
       </c>
       <c r="I26" t="n">
-        <v>73.64533192957366</v>
+        <v>73.64533192957363</v>
       </c>
       <c r="J26" t="n">
-        <v>297.3977577784411</v>
+        <v>214.0534177537179</v>
       </c>
       <c r="K26" t="n">
-        <v>753.4894465407426</v>
+        <v>670.1451065160194</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.588144378511</v>
+        <v>1288.243804353788</v>
       </c>
       <c r="M26" t="n">
-        <v>1769.822631625664</v>
+        <v>1992.604246040223</v>
       </c>
       <c r="N26" t="n">
-        <v>2470.948364098943</v>
+        <v>2260.756523345637</v>
       </c>
       <c r="O26" t="n">
-        <v>3087.81387385776</v>
+        <v>2877.622033104454</v>
       </c>
       <c r="P26" t="n">
-        <v>3576.619931841413</v>
+        <v>3366.428091088107</v>
       </c>
       <c r="Q26" t="n">
-        <v>3656.279324043951</v>
+        <v>3656.27932404395</v>
       </c>
       <c r="R26" t="n">
         <v>3682.266596478682</v>
       </c>
       <c r="S26" t="n">
-        <v>3615.44421303069</v>
+        <v>3615.444213030689</v>
       </c>
       <c r="T26" t="n">
-        <v>3482.266091539815</v>
+        <v>3482.266091539814</v>
       </c>
       <c r="U26" t="n">
-        <v>3308.382141447907</v>
+        <v>3308.382141447906</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.093239037778</v>
+        <v>3057.093239037777</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.098568701105</v>
+        <v>2784.098568701104</v>
       </c>
       <c r="X26" t="n">
-        <v>2490.406795373467</v>
+        <v>2490.406795373466</v>
       </c>
       <c r="Y26" t="n">
         <v>2180.041448331096</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>976.8841828577359</v>
+        <v>976.8841828577357</v>
       </c>
       <c r="C27" t="n">
-        <v>802.4311535766089</v>
+        <v>802.4311535766087</v>
       </c>
       <c r="D27" t="n">
-        <v>653.4967439153577</v>
+        <v>653.4967439153575</v>
       </c>
       <c r="E27" t="n">
-        <v>494.2592889099021</v>
+        <v>494.259288909902</v>
       </c>
       <c r="F27" t="n">
-        <v>347.7247309367871</v>
+        <v>347.724730936787</v>
       </c>
       <c r="G27" t="n">
         <v>210.5091782413052</v>
@@ -6300,28 +6300,28 @@
         <v>111.7743870946285</v>
       </c>
       <c r="I27" t="n">
-        <v>73.64533192957366</v>
+        <v>73.64533192957363</v>
       </c>
       <c r="J27" t="n">
-        <v>88.38723923757868</v>
+        <v>88.38723923757865</v>
       </c>
       <c r="K27" t="n">
-        <v>191.7383316083331</v>
+        <v>453.5589162507858</v>
       </c>
       <c r="L27" t="n">
-        <v>744.1611126233695</v>
+        <v>638.8497554153976</v>
       </c>
       <c r="M27" t="n">
-        <v>1091.838914071443</v>
+        <v>1335.480306400995</v>
       </c>
       <c r="N27" t="n">
-        <v>1822.614216240188</v>
+        <v>1591.706657969621</v>
       </c>
       <c r="O27" t="n">
-        <v>2424.715170929793</v>
+        <v>1901.460515117764</v>
       </c>
       <c r="P27" t="n">
-        <v>2575.673060595089</v>
+        <v>2367.696545736598</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.665215662294</v>
@@ -6330,10 +6330,10 @@
         <v>2619.57551363296</v>
       </c>
       <c r="S27" t="n">
-        <v>2474.303695299672</v>
+        <v>2474.303695299671</v>
       </c>
       <c r="T27" t="n">
-        <v>2278.224713076984</v>
+        <v>2278.224713076983</v>
       </c>
       <c r="U27" t="n">
         <v>2050.100783808235</v>
@@ -6342,7 +6342,7 @@
         <v>1814.948675576492</v>
       </c>
       <c r="W27" t="n">
-        <v>1560.711318848291</v>
+        <v>1560.71131884829</v>
       </c>
       <c r="X27" t="n">
         <v>1352.859818642758</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>568.8897160466016</v>
+        <v>568.8897160466011</v>
       </c>
       <c r="C28" t="n">
-        <v>479.7275180521361</v>
+        <v>479.7275180521357</v>
       </c>
       <c r="D28" t="n">
-        <v>409.3848635732418</v>
+        <v>409.3848635732414</v>
       </c>
       <c r="E28" t="n">
-        <v>341.2457549242902</v>
+        <v>341.2457549242898</v>
       </c>
       <c r="F28" t="n">
-        <v>274.1297923598212</v>
+        <v>274.129792359821</v>
       </c>
       <c r="G28" t="n">
-        <v>185.486273104159</v>
+        <v>185.4862731041587</v>
       </c>
       <c r="H28" t="n">
-        <v>112.6890269152896</v>
+        <v>112.6890269152895</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64533192957366</v>
+        <v>73.64533192957363</v>
       </c>
       <c r="J28" t="n">
-        <v>147.4329374830833</v>
+        <v>147.4329374830832</v>
       </c>
       <c r="K28" t="n">
-        <v>348.2275505062541</v>
+        <v>348.227550506254</v>
       </c>
       <c r="L28" t="n">
-        <v>638.8366621397054</v>
+        <v>638.8366621397046</v>
       </c>
       <c r="M28" t="n">
-        <v>951.3821462978453</v>
+        <v>951.3821462978444</v>
       </c>
       <c r="N28" t="n">
-        <v>1263.789713639701</v>
+        <v>1263.7897136397</v>
       </c>
       <c r="O28" t="n">
-        <v>1542.300982267959</v>
+        <v>1542.300982267958</v>
       </c>
       <c r="P28" t="n">
-        <v>1768.379244267235</v>
+        <v>1768.379244267234</v>
       </c>
       <c r="Q28" t="n">
-        <v>1865.523248943416</v>
+        <v>1865.523248943415</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.332724173778</v>
+        <v>1823.332724173777</v>
       </c>
       <c r="S28" t="n">
-        <v>1698.966118389973</v>
+        <v>1698.966118389972</v>
       </c>
       <c r="T28" t="n">
-        <v>1553.919908302062</v>
+        <v>1553.919908302061</v>
       </c>
       <c r="U28" t="n">
-        <v>1344.552044494029</v>
+        <v>1344.552044494028</v>
       </c>
       <c r="V28" t="n">
-        <v>1169.641541221584</v>
+        <v>1169.641541221583</v>
       </c>
       <c r="W28" t="n">
-        <v>959.9983561180645</v>
+        <v>959.9983561180637</v>
       </c>
       <c r="X28" t="n">
-        <v>811.7827901534886</v>
+        <v>811.7827901534879</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.7641959433998</v>
+        <v>670.7641959433993</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6446,7 @@
         <v>1305.535347520137</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5210798553342</v>
+        <v>999.5210798553344</v>
       </c>
       <c r="F29" t="n">
         <v>668.3091599991681</v>
@@ -6455,7 +6455,7 @@
         <v>331.4174660377912</v>
       </c>
       <c r="H29" t="n">
-        <v>97.29119674837182</v>
+        <v>97.29119674837179</v>
       </c>
       <c r="I29" t="n">
         <v>73.64533192957366</v>
@@ -6464,16 +6464,16 @@
         <v>297.3977577784411</v>
       </c>
       <c r="K29" t="n">
-        <v>753.4894465407426</v>
+        <v>753.4894465407427</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.588144378511</v>
+        <v>1300.288747343827</v>
       </c>
       <c r="M29" t="n">
-        <v>1992.604246040224</v>
+        <v>1559.630790872358</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.756523345638</v>
+        <v>2260.756523345637</v>
       </c>
       <c r="O29" t="n">
         <v>2877.622033104455</v>
@@ -6494,7 +6494,7 @@
         <v>3482.266091539815</v>
       </c>
       <c r="U29" t="n">
-        <v>3308.382141447907</v>
+        <v>3308.382141447908</v>
       </c>
       <c r="V29" t="n">
         <v>3057.093239037778</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>976.8841828577359</v>
+        <v>976.8841828577357</v>
       </c>
       <c r="C30" t="n">
-        <v>802.4311535766089</v>
+        <v>802.4311535766087</v>
       </c>
       <c r="D30" t="n">
-        <v>653.4967439153577</v>
+        <v>653.4967439153575</v>
       </c>
       <c r="E30" t="n">
-        <v>494.2592889099021</v>
+        <v>494.259288909902</v>
       </c>
       <c r="F30" t="n">
-        <v>347.7247309367871</v>
+        <v>347.724730936787</v>
       </c>
       <c r="G30" t="n">
         <v>210.5091782413052</v>
@@ -6540,25 +6540,25 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J30" t="n">
-        <v>88.38723923757868</v>
+        <v>213.2173642245835</v>
       </c>
       <c r="K30" t="n">
-        <v>453.5589162507859</v>
+        <v>316.568456595338</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8497554153977</v>
+        <v>501.8592957599499</v>
       </c>
       <c r="M30" t="n">
-        <v>1335.480306400995</v>
+        <v>737.4418336330476</v>
       </c>
       <c r="N30" t="n">
-        <v>1591.706657969622</v>
+        <v>1468.217135801792</v>
       </c>
       <c r="O30" t="n">
-        <v>1901.460515117764</v>
+        <v>2070.318090491397</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.696545736599</v>
+        <v>2367.696545736598</v>
       </c>
       <c r="Q30" t="n">
         <v>2626.665215662294</v>
@@ -6567,10 +6567,10 @@
         <v>2619.57551363296</v>
       </c>
       <c r="S30" t="n">
-        <v>2474.303695299672</v>
+        <v>2474.303695299671</v>
       </c>
       <c r="T30" t="n">
-        <v>2278.224713076984</v>
+        <v>2278.224713076983</v>
       </c>
       <c r="U30" t="n">
         <v>2050.100783808235</v>
@@ -6579,7 +6579,7 @@
         <v>1814.948675576492</v>
       </c>
       <c r="W30" t="n">
-        <v>1560.711318848291</v>
+        <v>1560.71131884829</v>
       </c>
       <c r="X30" t="n">
         <v>1352.859818642758</v>
@@ -6619,22 +6619,22 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J31" t="n">
-        <v>147.4329374830833</v>
+        <v>147.4329374830834</v>
       </c>
       <c r="K31" t="n">
-        <v>348.2275505062548</v>
+        <v>348.2275505062541</v>
       </c>
       <c r="L31" t="n">
-        <v>638.8366621397054</v>
+        <v>638.8366621397047</v>
       </c>
       <c r="M31" t="n">
-        <v>951.3821462978453</v>
+        <v>951.3821462978447</v>
       </c>
       <c r="N31" t="n">
         <v>1263.789713639701</v>
       </c>
       <c r="O31" t="n">
-        <v>1542.300982267959</v>
+        <v>1542.300982267958</v>
       </c>
       <c r="P31" t="n">
         <v>1768.379244267235</v>
@@ -6677,49 +6677,49 @@
         <v>1873.215593200416</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.027061193445</v>
+        <v>1584.027061193446</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E32" t="n">
-        <v>999.5210798553335</v>
+        <v>999.5210798553342</v>
       </c>
       <c r="F32" t="n">
-        <v>668.3091599991676</v>
+        <v>668.3091599991681</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4174660377907</v>
+        <v>331.4174660377912</v>
       </c>
       <c r="H32" t="n">
-        <v>97.29119674837182</v>
+        <v>97.29119674837176</v>
       </c>
       <c r="I32" t="n">
         <v>73.64533192957366</v>
       </c>
       <c r="J32" t="n">
-        <v>297.3977577784411</v>
+        <v>158.072142035971</v>
       </c>
       <c r="K32" t="n">
-        <v>753.4894465407426</v>
+        <v>614.1638307982726</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.588144378511</v>
+        <v>1232.262528636041</v>
       </c>
       <c r="M32" t="n">
-        <v>2075.948586064946</v>
+        <v>1936.622970322476</v>
       </c>
       <c r="N32" t="n">
-        <v>2777.074318538225</v>
+        <v>2637.748702795755</v>
       </c>
       <c r="O32" t="n">
-        <v>3016.947648846924</v>
+        <v>2877.622033104455</v>
       </c>
       <c r="P32" t="n">
-        <v>3392.415363522839</v>
+        <v>3366.428091088108</v>
       </c>
       <c r="Q32" t="n">
-        <v>3682.266596478682</v>
+        <v>3656.279324043951</v>
       </c>
       <c r="R32" t="n">
         <v>3682.266596478682</v>
@@ -6728,19 +6728,19 @@
         <v>3615.44421303069</v>
       </c>
       <c r="T32" t="n">
-        <v>3482.266091539814</v>
+        <v>3482.266091539815</v>
       </c>
       <c r="U32" t="n">
-        <v>3308.382141447906</v>
+        <v>3308.382141447907</v>
       </c>
       <c r="V32" t="n">
-        <v>3057.093239037777</v>
+        <v>3057.093239037778</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.098568701104</v>
+        <v>2784.098568701105</v>
       </c>
       <c r="X32" t="n">
-        <v>2490.406795373466</v>
+        <v>2490.406795373467</v>
       </c>
       <c r="Y32" t="n">
         <v>2180.041448331096</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>976.8841828577359</v>
+        <v>976.8841828577357</v>
       </c>
       <c r="C33" t="n">
-        <v>802.4311535766089</v>
+        <v>802.4311535766087</v>
       </c>
       <c r="D33" t="n">
-        <v>653.4967439153577</v>
+        <v>653.4967439153575</v>
       </c>
       <c r="E33" t="n">
-        <v>494.2592889099021</v>
+        <v>494.259288909902</v>
       </c>
       <c r="F33" t="n">
-        <v>347.7247309367871</v>
+        <v>347.724730936787</v>
       </c>
       <c r="G33" t="n">
         <v>210.5091782413052</v>
@@ -6777,25 +6777,25 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J33" t="n">
-        <v>88.38723923757868</v>
+        <v>213.2173642245835</v>
       </c>
       <c r="K33" t="n">
-        <v>191.7383316083331</v>
+        <v>578.3890412377908</v>
       </c>
       <c r="L33" t="n">
-        <v>744.1611126233695</v>
+        <v>1130.811822252827</v>
       </c>
       <c r="M33" t="n">
-        <v>1440.791663608967</v>
+        <v>1433.056904943494</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.018015177593</v>
+        <v>1689.283256512121</v>
       </c>
       <c r="O33" t="n">
-        <v>1909.195273783236</v>
+        <v>1901.460515117764</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.696545736599</v>
+        <v>2367.696545736598</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.665215662294</v>
@@ -6804,10 +6804,10 @@
         <v>2619.57551363296</v>
       </c>
       <c r="S33" t="n">
-        <v>2474.303695299672</v>
+        <v>2474.303695299671</v>
       </c>
       <c r="T33" t="n">
-        <v>2278.224713076984</v>
+        <v>2278.224713076983</v>
       </c>
       <c r="U33" t="n">
         <v>2050.100783808235</v>
@@ -6816,7 +6816,7 @@
         <v>1814.948675576492</v>
       </c>
       <c r="W33" t="n">
-        <v>1560.711318848291</v>
+        <v>1560.71131884829</v>
       </c>
       <c r="X33" t="n">
         <v>1352.859818642758</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.8897160466014</v>
+        <v>568.8897160466013</v>
       </c>
       <c r="C34" t="n">
-        <v>479.727518052136</v>
+        <v>479.7275180521358</v>
       </c>
       <c r="D34" t="n">
-        <v>409.3848635732417</v>
+        <v>409.3848635732415</v>
       </c>
       <c r="E34" t="n">
-        <v>341.24575492429</v>
+        <v>341.2457549242898</v>
       </c>
       <c r="F34" t="n">
-        <v>274.1297923598211</v>
+        <v>274.129792359821</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4862731041588</v>
+        <v>185.4862731041587</v>
       </c>
       <c r="H34" t="n">
         <v>112.6890269152896</v>
@@ -6856,19 +6856,19 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J34" t="n">
-        <v>147.4329374830833</v>
+        <v>147.4329374830832</v>
       </c>
       <c r="K34" t="n">
-        <v>348.2275505062541</v>
+        <v>348.227550506254</v>
       </c>
       <c r="L34" t="n">
-        <v>638.8366621397047</v>
+        <v>638.8366621397045</v>
       </c>
       <c r="M34" t="n">
-        <v>951.3821462978447</v>
+        <v>951.3821462978444</v>
       </c>
       <c r="N34" t="n">
-        <v>1263.789713639701</v>
+        <v>1263.7897136397</v>
       </c>
       <c r="O34" t="n">
         <v>1542.300982267958</v>
@@ -6892,16 +6892,16 @@
         <v>1344.552044494029</v>
       </c>
       <c r="V34" t="n">
-        <v>1169.641541221583</v>
+        <v>1169.641541221584</v>
       </c>
       <c r="W34" t="n">
-        <v>959.9983561180642</v>
+        <v>959.9983561180644</v>
       </c>
       <c r="X34" t="n">
-        <v>811.7827901534883</v>
+        <v>811.7827901534881</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.7641959433996</v>
+        <v>670.7641959433995</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.580781882097</v>
+        <v>1382.580781882096</v>
       </c>
       <c r="C35" t="n">
         <v>1167.633260071249</v>
       </c>
       <c r="D35" t="n">
-        <v>963.3825565940633</v>
+        <v>963.382556594063</v>
       </c>
       <c r="E35" t="n">
-        <v>731.6092991253837</v>
+        <v>731.6092991253831</v>
       </c>
       <c r="F35" t="n">
-        <v>474.6383894653407</v>
+        <v>474.63838946534</v>
       </c>
       <c r="G35" t="n">
-        <v>211.9877057000865</v>
+        <v>211.9877057000864</v>
       </c>
       <c r="H35" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="I35" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J35" t="n">
-        <v>130.5770676255599</v>
+        <v>275.8548724556576</v>
       </c>
       <c r="K35" t="n">
-        <v>265.7647979424083</v>
+        <v>411.0426027725061</v>
       </c>
       <c r="L35" t="n">
-        <v>883.8634957801767</v>
+        <v>615.6566982053287</v>
       </c>
       <c r="M35" t="n">
-        <v>1528.631272539205</v>
+        <v>874.9987417338598</v>
       </c>
       <c r="N35" t="n">
-        <v>1796.78354984462</v>
+        <v>1519.766518492888</v>
       </c>
       <c r="O35" t="n">
-        <v>2036.656880153319</v>
+        <v>2136.632028251706</v>
       </c>
       <c r="P35" t="n">
-        <v>2525.462938136972</v>
+        <v>2525.462938136971</v>
       </c>
       <c r="Q35" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="R35" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="S35" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="T35" t="n">
-        <v>2546.185219044758</v>
+        <v>2546.185219044756</v>
       </c>
       <c r="U35" t="n">
-        <v>2446.542279148973</v>
+        <v>2446.542279148972</v>
       </c>
       <c r="V35" t="n">
-        <v>2269.494386934967</v>
+        <v>2269.494386934966</v>
       </c>
       <c r="W35" t="n">
-        <v>2070.740726794417</v>
+        <v>2070.740726794416</v>
       </c>
       <c r="X35" t="n">
-        <v>1851.289963662902</v>
+        <v>1851.289963662901</v>
       </c>
       <c r="Y35" t="n">
         <v>1615.165626816654</v>
@@ -6990,55 +6990,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.3412975349515</v>
+        <v>955.3412975349523</v>
       </c>
       <c r="C36" t="n">
-        <v>780.8882682538245</v>
+        <v>780.8882682538253</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9538585925734</v>
+        <v>631.9538585925741</v>
       </c>
       <c r="E36" t="n">
-        <v>472.7164035871178</v>
+        <v>472.7164035871185</v>
       </c>
       <c r="F36" t="n">
-        <v>326.1818456140029</v>
+        <v>326.1818456140035</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9662929185215</v>
+        <v>188.9662929185217</v>
       </c>
       <c r="H36" t="n">
-        <v>90.23150177184507</v>
+        <v>90.23150177184505</v>
       </c>
       <c r="I36" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J36" t="n">
-        <v>66.84435391479522</v>
+        <v>191.6744789018</v>
       </c>
       <c r="K36" t="n">
-        <v>432.0160309280025</v>
+        <v>295.0255712725545</v>
       </c>
       <c r="L36" t="n">
-        <v>984.4388119430389</v>
+        <v>847.448352287591</v>
       </c>
       <c r="M36" t="n">
-        <v>1629.206588702068</v>
+        <v>1083.030890160689</v>
       </c>
       <c r="N36" t="n">
-        <v>1885.432940270694</v>
+        <v>1339.257241729315</v>
       </c>
       <c r="O36" t="n">
-        <v>2097.610198876337</v>
+        <v>1941.35819641892</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.130175272305</v>
+        <v>2407.594227037755</v>
       </c>
       <c r="Q36" t="n">
         <v>2605.12233033951</v>
       </c>
       <c r="R36" t="n">
-        <v>2598.032628310176</v>
+        <v>2598.032628310177</v>
       </c>
       <c r="S36" t="n">
         <v>2452.760809976888</v>
@@ -7050,13 +7050,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.405790253708</v>
+        <v>1793.405790253709</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.168433525506</v>
+        <v>1539.168433525507</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.316933319973</v>
+        <v>1331.316933319974</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.55663455502</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>254.3424628169391</v>
+        <v>81.42614346467195</v>
       </c>
       <c r="C37" t="n">
-        <v>214.4180492487226</v>
+        <v>66.50495566632945</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4180492487226</v>
+        <v>66.50495566632945</v>
       </c>
       <c r="E37" t="n">
-        <v>66.50495566632947</v>
+        <v>66.50495566632945</v>
       </c>
       <c r="F37" t="n">
-        <v>66.50495566632947</v>
+        <v>66.50495566632945</v>
       </c>
       <c r="G37" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="H37" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="I37" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J37" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="K37" t="n">
         <v>174.710576996695</v>
@@ -7105,13 +7105,13 @@
         <v>621.4922075217537</v>
       </c>
       <c r="N37" t="n">
-        <v>855.7132922303438</v>
+        <v>855.7132922303439</v>
       </c>
       <c r="O37" t="n">
-        <v>1056.038078225335</v>
+        <v>1056.038078225336</v>
       </c>
       <c r="P37" t="n">
-        <v>1203.929857591345</v>
+        <v>1203.929857591346</v>
       </c>
       <c r="Q37" t="n">
         <v>1222.88737963426</v>
@@ -7120,25 +7120,25 @@
         <v>1222.88737963426</v>
       </c>
       <c r="S37" t="n">
-        <v>1172.761784046578</v>
+        <v>1018.746788917014</v>
       </c>
       <c r="T37" t="n">
-        <v>1101.95658415479</v>
+        <v>947.941589025226</v>
       </c>
       <c r="U37" t="n">
-        <v>966.8297305428805</v>
+        <v>658.799740283752</v>
       </c>
       <c r="V37" t="n">
-        <v>866.160237466558</v>
+        <v>404.1152520778652</v>
       </c>
       <c r="W37" t="n">
-        <v>576.7430674295974</v>
+        <v>268.713077170469</v>
       </c>
       <c r="X37" t="n">
-        <v>348.7535165315801</v>
+        <v>194.7385214020161</v>
       </c>
       <c r="Y37" t="n">
-        <v>281.9759325176144</v>
+        <v>109.0596131653472</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1382.580781882097</v>
+        <v>1382.580781882098</v>
       </c>
       <c r="C38" t="n">
         <v>1167.63326007125</v>
       </c>
       <c r="D38" t="n">
-        <v>963.3825565940638</v>
+        <v>963.3825565940642</v>
       </c>
       <c r="E38" t="n">
-        <v>731.6092991253839</v>
+        <v>731.6092991253845</v>
       </c>
       <c r="F38" t="n">
-        <v>474.6383894653408</v>
+        <v>474.6383894653413</v>
       </c>
       <c r="G38" t="n">
         <v>211.9877057000865</v>
@@ -7172,28 +7172,28 @@
         <v>52.1024466067902</v>
       </c>
       <c r="J38" t="n">
-        <v>223.1577115850528</v>
+        <v>275.8548724556577</v>
       </c>
       <c r="K38" t="n">
-        <v>679.2494003473543</v>
+        <v>411.0426027725063</v>
       </c>
       <c r="L38" t="n">
-        <v>883.8634957801767</v>
+        <v>615.6566982053289</v>
       </c>
       <c r="M38" t="n">
-        <v>1528.631272539205</v>
+        <v>1234.040700990818</v>
       </c>
       <c r="N38" t="n">
-        <v>1796.78354984462</v>
+        <v>1502.192978296232</v>
       </c>
       <c r="O38" t="n">
-        <v>2036.656880153319</v>
+        <v>2119.05848805505</v>
       </c>
       <c r="P38" t="n">
-        <v>2525.462938136972</v>
+        <v>2289.283824948935</v>
       </c>
       <c r="Q38" t="n">
-        <v>2605.12233033951</v>
+        <v>2579.135057904778</v>
       </c>
       <c r="R38" t="n">
         <v>2605.12233033951</v>
@@ -7205,13 +7205,13 @@
         <v>2546.185219044758</v>
       </c>
       <c r="U38" t="n">
-        <v>2446.542279148973</v>
+        <v>2446.542279148974</v>
       </c>
       <c r="V38" t="n">
         <v>2269.494386934967</v>
       </c>
       <c r="W38" t="n">
-        <v>2070.740726794417</v>
+        <v>2070.740726794418</v>
       </c>
       <c r="X38" t="n">
         <v>1851.289963662902</v>
@@ -7245,31 +7245,31 @@
         <v>188.9662929185217</v>
       </c>
       <c r="H39" t="n">
-        <v>90.23150177184507</v>
+        <v>90.23150177184506</v>
       </c>
       <c r="I39" t="n">
         <v>52.1024466067902</v>
       </c>
       <c r="J39" t="n">
-        <v>191.6744789018</v>
+        <v>66.84435391479528</v>
       </c>
       <c r="K39" t="n">
-        <v>295.0255712725544</v>
+        <v>170.1954462855498</v>
       </c>
       <c r="L39" t="n">
-        <v>480.3164104371662</v>
+        <v>722.6182273005862</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.084187196195</v>
+        <v>1338.250735383847</v>
       </c>
       <c r="N39" t="n">
-        <v>1769.851963955224</v>
+        <v>1983.018512142875</v>
       </c>
       <c r="O39" t="n">
-        <v>1982.029222560866</v>
+        <v>2195.195770748518</v>
       </c>
       <c r="P39" t="n">
-        <v>2448.265253179701</v>
+        <v>2346.153660413815</v>
       </c>
       <c r="Q39" t="n">
         <v>2605.12233033951</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>408.3574579465035</v>
+        <v>390.0459701091701</v>
       </c>
       <c r="C40" t="n">
-        <v>393.436270148161</v>
+        <v>221.1097871812632</v>
       </c>
       <c r="D40" t="n">
-        <v>367.4098982938042</v>
+        <v>70.99314776892743</v>
       </c>
       <c r="E40" t="n">
-        <v>367.4098982938042</v>
+        <v>70.99314776892743</v>
       </c>
       <c r="F40" t="n">
-        <v>220.5199507958939</v>
+        <v>70.99314776892743</v>
       </c>
       <c r="G40" t="n">
-        <v>52.1024466067902</v>
+        <v>56.59063870938816</v>
       </c>
       <c r="H40" t="n">
-        <v>52.1024466067902</v>
+        <v>56.59063870938816</v>
       </c>
       <c r="I40" t="n">
-        <v>52.1024466067902</v>
+        <v>56.59063870938816</v>
       </c>
       <c r="J40" t="n">
         <v>52.1024466067902</v>
       </c>
       <c r="K40" t="n">
-        <v>174.710576996695</v>
+        <v>174.7105769966951</v>
       </c>
       <c r="L40" t="n">
         <v>387.1332059968797</v>
@@ -7342,13 +7342,13 @@
         <v>621.4922075217537</v>
       </c>
       <c r="N40" t="n">
-        <v>855.7132922303438</v>
+        <v>855.7132922303439</v>
       </c>
       <c r="O40" t="n">
-        <v>1056.038078225335</v>
+        <v>1056.038078225336</v>
       </c>
       <c r="P40" t="n">
-        <v>1203.929857591345</v>
+        <v>1203.929857591346</v>
       </c>
       <c r="Q40" t="n">
         <v>1222.88737963426</v>
@@ -7363,19 +7363,19 @@
         <v>1101.95658415479</v>
       </c>
       <c r="U40" t="n">
-        <v>966.8297305428805</v>
+        <v>966.8297305428807</v>
       </c>
       <c r="V40" t="n">
-        <v>866.160237466558</v>
+        <v>866.1602374665582</v>
       </c>
       <c r="W40" t="n">
-        <v>730.7580625591618</v>
+        <v>712.4465747218284</v>
       </c>
       <c r="X40" t="n">
-        <v>656.7835067907089</v>
+        <v>638.4720189533755</v>
       </c>
       <c r="Y40" t="n">
-        <v>590.0059227767432</v>
+        <v>571.6944349394098</v>
       </c>
     </row>
     <row r="41">
@@ -7394,55 +7394,55 @@
         <v>963.3825565940629</v>
       </c>
       <c r="E41" t="n">
-        <v>731.6092991253829</v>
+        <v>731.6092991253834</v>
       </c>
       <c r="F41" t="n">
-        <v>474.6383894653397</v>
+        <v>474.6383894653402</v>
       </c>
       <c r="G41" t="n">
-        <v>211.9877057000864</v>
+        <v>211.9877057000865</v>
       </c>
       <c r="H41" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I41" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8548724556576</v>
+        <v>108.4492234353047</v>
       </c>
       <c r="K41" t="n">
-        <v>411.042602772506</v>
+        <v>564.5409121976063</v>
       </c>
       <c r="L41" t="n">
-        <v>1029.141300610274</v>
+        <v>1182.639610035375</v>
       </c>
       <c r="M41" t="n">
-        <v>1673.909077369303</v>
+        <v>1441.981653563906</v>
       </c>
       <c r="N41" t="n">
-        <v>1942.061354674717</v>
+        <v>1710.13393086932</v>
       </c>
       <c r="O41" t="n">
-        <v>2181.934684983417</v>
+        <v>2010.669607718587</v>
       </c>
       <c r="P41" t="n">
-        <v>2352.160021877302</v>
+        <v>2499.475665702241</v>
       </c>
       <c r="Q41" t="n">
-        <v>2605.122330339509</v>
+        <v>2579.135057904778</v>
       </c>
       <c r="R41" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="S41" t="n">
-        <v>2605.122330339509</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="T41" t="n">
         <v>2546.185219044757</v>
       </c>
       <c r="U41" t="n">
-        <v>2446.542279148972</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V41" t="n">
         <v>2269.494386934966</v>
@@ -7464,55 +7464,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.3412975349523</v>
+        <v>955.3412975349515</v>
       </c>
       <c r="C42" t="n">
-        <v>780.8882682538253</v>
+        <v>780.8882682538245</v>
       </c>
       <c r="D42" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925734</v>
       </c>
       <c r="E42" t="n">
-        <v>472.7164035871186</v>
+        <v>472.7164035871178</v>
       </c>
       <c r="F42" t="n">
-        <v>326.1818456140036</v>
+        <v>326.1818456140029</v>
       </c>
       <c r="G42" t="n">
-        <v>188.9662929185217</v>
+        <v>188.9662929185215</v>
       </c>
       <c r="H42" t="n">
         <v>90.23150177184506</v>
       </c>
       <c r="I42" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J42" t="n">
-        <v>66.84435391479521</v>
+        <v>191.6744789018</v>
       </c>
       <c r="K42" t="n">
-        <v>432.0160309280024</v>
+        <v>295.0255712725545</v>
       </c>
       <c r="L42" t="n">
-        <v>984.4388119430389</v>
+        <v>847.448352287591</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.56683839524</v>
+        <v>1336.868464490286</v>
       </c>
       <c r="N42" t="n">
-        <v>1485.793189963867</v>
+        <v>1593.094816058913</v>
       </c>
       <c r="O42" t="n">
-        <v>2087.894144653471</v>
+        <v>2195.195770748518</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.130175272306</v>
+        <v>2346.153660413815</v>
       </c>
       <c r="Q42" t="n">
         <v>2605.12233033951</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.032628310177</v>
+        <v>2598.032628310176</v>
       </c>
       <c r="S42" t="n">
         <v>2452.760809976888</v>
@@ -7524,13 +7524,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.405790253709</v>
+        <v>1793.405790253708</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.168433525507</v>
+        <v>1539.168433525506</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.316933319974</v>
+        <v>1331.316933319973</v>
       </c>
       <c r="Y42" t="n">
         <v>1123.55663455502</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>408.3574579465035</v>
+        <v>81.42614346467195</v>
       </c>
       <c r="C43" t="n">
-        <v>393.436270148161</v>
+        <v>66.50495566632947</v>
       </c>
       <c r="D43" t="n">
-        <v>393.436270148161</v>
+        <v>66.50495566632947</v>
       </c>
       <c r="E43" t="n">
-        <v>393.436270148161</v>
+        <v>66.50495566632947</v>
       </c>
       <c r="F43" t="n">
-        <v>246.5463226502506</v>
+        <v>66.50495566632947</v>
       </c>
       <c r="G43" t="n">
-        <v>78.12881846114695</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="H43" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I43" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J43" t="n">
-        <v>52.10244660679018</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="K43" t="n">
-        <v>174.710576996695</v>
+        <v>174.7105769966951</v>
       </c>
       <c r="L43" t="n">
-        <v>387.1332059968796</v>
+        <v>387.1332059968797</v>
       </c>
       <c r="M43" t="n">
-        <v>621.4922075217536</v>
+        <v>621.4922075217537</v>
       </c>
       <c r="N43" t="n">
-        <v>855.7132922303437</v>
+        <v>855.7132922303439</v>
       </c>
       <c r="O43" t="n">
-        <v>1056.038078225335</v>
+        <v>1056.038078225336</v>
       </c>
       <c r="P43" t="n">
-        <v>1203.929857591345</v>
+        <v>1203.929857591346</v>
       </c>
       <c r="Q43" t="n">
         <v>1222.88737963426</v>
@@ -7597,22 +7597,22 @@
         <v>1172.761784046578</v>
       </c>
       <c r="T43" t="n">
-        <v>1101.95658415479</v>
+        <v>947.941589025226</v>
       </c>
       <c r="U43" t="n">
-        <v>966.8297305428805</v>
+        <v>793.9134111906134</v>
       </c>
       <c r="V43" t="n">
-        <v>866.160237466558</v>
+        <v>693.2439181142909</v>
       </c>
       <c r="W43" t="n">
-        <v>730.7580625591618</v>
+        <v>403.8267480773303</v>
       </c>
       <c r="X43" t="n">
-        <v>656.7835067907089</v>
+        <v>175.8371971793129</v>
       </c>
       <c r="Y43" t="n">
-        <v>435.9909276471788</v>
+        <v>109.0596131653472</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>108.4492234353046</v>
       </c>
       <c r="K44" t="n">
-        <v>243.636953752153</v>
+        <v>564.5409121976063</v>
       </c>
       <c r="L44" t="n">
-        <v>857.8762233454445</v>
+        <v>1182.639610035375</v>
       </c>
       <c r="M44" t="n">
-        <v>1502.644000104473</v>
+        <v>1441.981653563906</v>
       </c>
       <c r="N44" t="n">
-        <v>1770.796277409887</v>
+        <v>2086.749430322934</v>
       </c>
       <c r="O44" t="n">
-        <v>2010.669607718587</v>
+        <v>2326.622760631634</v>
       </c>
       <c r="P44" t="n">
         <v>2499.47566570224</v>
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.3412975349523</v>
+        <v>955.3412975349509</v>
       </c>
       <c r="C45" t="n">
-        <v>780.8882682538253</v>
+        <v>780.8882682538239</v>
       </c>
       <c r="D45" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925726</v>
       </c>
       <c r="E45" t="n">
-        <v>472.7164035871186</v>
+        <v>472.7164035871185</v>
       </c>
       <c r="F45" t="n">
-        <v>326.1818456140036</v>
+        <v>326.1818456140035</v>
       </c>
       <c r="G45" t="n">
         <v>188.9662929185217</v>
       </c>
       <c r="H45" t="n">
-        <v>90.23150177184506</v>
+        <v>90.23150177184505</v>
       </c>
       <c r="I45" t="n">
         <v>52.10244660679018</v>
       </c>
       <c r="J45" t="n">
-        <v>66.84435391479521</v>
+        <v>66.84435391479526</v>
       </c>
       <c r="K45" t="n">
-        <v>432.0160309280024</v>
+        <v>432.0160309280026</v>
       </c>
       <c r="L45" t="n">
-        <v>984.4388119430389</v>
+        <v>617.3068700926144</v>
       </c>
       <c r="M45" t="n">
-        <v>1629.206588702067</v>
+        <v>1022.972594430308</v>
       </c>
       <c r="N45" t="n">
-        <v>1885.432940270694</v>
+        <v>1667.740371189336</v>
       </c>
       <c r="O45" t="n">
-        <v>2195.195770748517</v>
+        <v>1879.917629794979</v>
       </c>
       <c r="P45" t="n">
         <v>2346.153660413814</v>
@@ -7755,22 +7755,22 @@
         <v>2452.760809976887</v>
       </c>
       <c r="T45" t="n">
-        <v>2256.6818277542</v>
+        <v>2256.681827754199</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.557898485451</v>
+        <v>2028.55789848545</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.405790253709</v>
+        <v>1793.405790253707</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.168433525507</v>
+        <v>1539.168433525506</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.316933319974</v>
+        <v>1331.316933319973</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.55663455502</v>
+        <v>1123.556634555019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.3274676873747</v>
+        <v>254.3424628169395</v>
       </c>
       <c r="C46" t="n">
-        <v>85.40627988903222</v>
+        <v>239.421275018597</v>
       </c>
       <c r="D46" t="n">
-        <v>85.40627988903222</v>
+        <v>239.421275018597</v>
       </c>
       <c r="E46" t="n">
-        <v>85.40627988903222</v>
+        <v>91.50818143620387</v>
       </c>
       <c r="F46" t="n">
-        <v>85.40627988903222</v>
+        <v>66.50495566632945</v>
       </c>
       <c r="G46" t="n">
-        <v>71.00377082949295</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="H46" t="n">
         <v>52.10244660679018</v>
@@ -7810,19 +7810,19 @@
         <v>174.710576996695</v>
       </c>
       <c r="L46" t="n">
-        <v>387.1332059968796</v>
+        <v>387.1332059968797</v>
       </c>
       <c r="M46" t="n">
-        <v>621.4922075217536</v>
+        <v>621.4922075217537</v>
       </c>
       <c r="N46" t="n">
-        <v>855.7132922303437</v>
+        <v>855.7132922303439</v>
       </c>
       <c r="O46" t="n">
-        <v>1056.038078225335</v>
+        <v>1056.038078225336</v>
       </c>
       <c r="P46" t="n">
-        <v>1203.929857591345</v>
+        <v>1203.929857591346</v>
       </c>
       <c r="Q46" t="n">
         <v>1222.88737963426</v>
@@ -7834,22 +7834,22 @@
         <v>1018.746788917014</v>
       </c>
       <c r="T46" t="n">
-        <v>947.9415890252258</v>
+        <v>947.941589025226</v>
       </c>
       <c r="U46" t="n">
-        <v>812.8147354133162</v>
+        <v>658.799740283752</v>
       </c>
       <c r="V46" t="n">
-        <v>712.1452423369936</v>
+        <v>558.1302472074295</v>
       </c>
       <c r="W46" t="n">
-        <v>576.7430674295974</v>
+        <v>422.7280723000333</v>
       </c>
       <c r="X46" t="n">
-        <v>502.7685116611445</v>
+        <v>348.7535165315804</v>
       </c>
       <c r="Y46" t="n">
-        <v>281.9759325176144</v>
+        <v>281.9759325176148</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.46664973688988</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>122.5993157407075</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>83.54305920274024</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>206.1423749434479</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>201.9847440072286</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>169.2766351732794</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>32.70810883394867</v>
       </c>
       <c r="R14" t="n">
-        <v>39.46664973688988</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>143.661881938098</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.2524651763671</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>210.8746537743087</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>140.7120422473048</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>61.27270175992308</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.984744007229</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.46664973688991</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>149.0369073699198</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>259.0902115807571</v>
+        <v>143.6618819380975</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>201.9847440072277</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>149.611268284561</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>52.37347572266813</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.46664973688991</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>10.10588539231012</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>224.4104646117519</v>
+        <v>84.78361843390007</v>
       </c>
       <c r="M21" t="n">
-        <v>173.6107689466148</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>197.2524651763671</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>163.6789559591352</v>
+        <v>93.32744745932098</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>213.529583519332</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>283.8810920191441</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.46664973688991</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.5054135224198</v>
+        <v>241.5054135224194</v>
       </c>
       <c r="P24" t="n">
-        <v>5.6771778232374</v>
+        <v>131.7682131636449</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>84.9104131268989</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>140.295397695578</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,25 +9954,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>113.2275389646226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>98.5622207499996</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,13 +10115,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>345.6416215861232</v>
       </c>
       <c r="M29" t="n">
-        <v>365.3273314476583</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>98.56222074999982</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>147.8995611918226</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>28.36366997765943</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>207.3155331131613</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>39.46664973688991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>67.33590385613064</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>310.6498810990565</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>22.35135776793469</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>389.3189224550483</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>380.4196964177919</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>220.8137100923032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>39.46664973688991</v>
+        <v>39.46664973688985</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.3184231171022</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>308.6485724552241</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>148.0161093278293</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>115.8671597472204</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>389.3189224550483</v>
+        <v>362.6686457140986</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>39.46664973688991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>413.3184231171022</v>
+        <v>383.8888587981442</v>
       </c>
       <c r="N39" t="n">
-        <v>392.4660860509115</v>
+        <v>392.4660860509114</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.9342647400049</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>389.3189224550481</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>61.27509751572464</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.0534507673431</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>39.46664973688991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>9.641907655660333</v>
+        <v>256.4015902319169</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>413.762802182292</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>389.318922455048</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>380.4196964177919</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>2.654109269414874</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>413.3184231171019</v>
+        <v>171.8011984490865</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.4660860509111</v>
       </c>
       <c r="O45" t="n">
-        <v>98.57128471937449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8875013875137</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.4265514950408</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8367013447161</v>
+        <v>222.8367013447162</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.084029796295</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.0297054657447</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>280.6526818299033</v>
       </c>
       <c r="H11" t="n">
-        <v>178.9149114046652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.2750153991285</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>147.6476701261899</v>
       </c>
       <c r="W11" t="n">
-        <v>217.3946284414462</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>165.9769837003328</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.3915983800867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.8875013875137</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.4265514950407</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.0840297962949</v>
       </c>
       <c r="F14" t="n">
-        <v>263.3722374318217</v>
+        <v>275.0297054657446</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6526818299032</v>
+        <v>274.2568942946602</v>
       </c>
       <c r="H14" t="n">
         <v>178.9149114046652</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>237.8847604025022</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.73684194136</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>171.7368419413598</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>131.4380716263395</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>171.736841941361</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.29877031502144</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1120010.179967703</v>
+        <v>1120010.179967702</v>
       </c>
     </row>
     <row r="9">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>327710.5354868154</v>
+      </c>
+      <c r="C2" t="n">
         <v>327710.5354868153</v>
-      </c>
-      <c r="C2" t="n">
-        <v>327710.5354868151</v>
       </c>
       <c r="D2" t="n">
         <v>327710.5354868153</v>
@@ -26323,10 +26323,10 @@
         <v>283532.5814382701</v>
       </c>
       <c r="F2" t="n">
-        <v>289835.7949219011</v>
+        <v>289835.7949219013</v>
       </c>
       <c r="G2" t="n">
-        <v>322948.6068983005</v>
+        <v>322948.6068983004</v>
       </c>
       <c r="H2" t="n">
         <v>322948.6068983005</v>
@@ -26335,13 +26335,13 @@
         <v>328416.7079457134</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457135</v>
@@ -26353,7 +26353,7 @@
         <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457136</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>773445.4973893159</v>
+        <v>773445.497389316</v>
       </c>
       <c r="F3" t="n">
         <v>14616.10764127579</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11767.78827713063</v>
+        <v>11767.78827713057</v>
       </c>
       <c r="J3" t="n">
         <v>121596.6346431578</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63180.9960672856</v>
+        <v>63180.99606728562</v>
       </c>
       <c r="M3" t="n">
-        <v>81545.07701844758</v>
+        <v>81545.07701844756</v>
       </c>
       <c r="N3" t="n">
-        <v>12494.08219936325</v>
+        <v>12494.08219936327</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,28 +26433,28 @@
         <v>214469.0148827532</v>
       </c>
       <c r="H4" t="n">
-        <v>214469.0148827533</v>
+        <v>214469.0148827532</v>
       </c>
       <c r="I4" t="n">
-        <v>220499.1782190941</v>
+        <v>220499.178219094</v>
       </c>
       <c r="J4" t="n">
+        <v>205827.8082342248</v>
+      </c>
+      <c r="K4" t="n">
         <v>205827.8082342247</v>
-      </c>
-      <c r="K4" t="n">
-        <v>205827.8082342248</v>
       </c>
       <c r="L4" t="n">
         <v>205827.8082342247</v>
       </c>
       <c r="M4" t="n">
-        <v>212671.0574004737</v>
+        <v>212671.0574004736</v>
       </c>
       <c r="N4" t="n">
-        <v>212671.0574004737</v>
+        <v>212671.0574004736</v>
       </c>
       <c r="O4" t="n">
-        <v>212671.0574004737</v>
+        <v>212671.0574004736</v>
       </c>
       <c r="P4" t="n">
         <v>212671.0574004736</v>
@@ -26488,10 +26488,10 @@
         <v>57951.12571182272</v>
       </c>
       <c r="I5" t="n">
-        <v>60641.7049712627</v>
+        <v>60641.70497126269</v>
       </c>
       <c r="J5" t="n">
-        <v>77813.75395004352</v>
+        <v>77813.75395004351</v>
       </c>
       <c r="K5" t="n">
         <v>77813.75395004352</v>
@@ -26503,10 +26503,10 @@
         <v>67620.11491604417</v>
       </c>
       <c r="N5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.11491604419</v>
       </c>
       <c r="O5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.11491604419</v>
       </c>
       <c r="P5" t="n">
         <v>67620.11491604417</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152941.6847855776</v>
+        <v>-152946.0983634456</v>
       </c>
       <c r="C6" t="n">
-        <v>-152941.6847855777</v>
+        <v>-152946.0983634457</v>
       </c>
       <c r="D6" t="n">
-        <v>-152941.6847855776</v>
+        <v>-152946.0983634457</v>
       </c>
       <c r="E6" t="n">
-        <v>-698391.7327068893</v>
+        <v>-698672.2584975607</v>
       </c>
       <c r="F6" t="n">
-        <v>56688.25777304599</v>
+        <v>56447.12706664739</v>
       </c>
       <c r="G6" t="n">
-        <v>-12652.52976356108</v>
+        <v>-12686.70539510741</v>
       </c>
       <c r="H6" t="n">
-        <v>50528.46630372449</v>
+        <v>50494.29067217825</v>
       </c>
       <c r="I6" t="n">
-        <v>35508.03647822603</v>
+        <v>35508.03647822619</v>
       </c>
       <c r="J6" t="n">
-        <v>-76821.48888171313</v>
+        <v>-76821.48888171291</v>
       </c>
       <c r="K6" t="n">
-        <v>44775.14576144467</v>
+        <v>44775.14576144487</v>
       </c>
       <c r="L6" t="n">
-        <v>-18405.8503058404</v>
+        <v>-18405.85030584055</v>
       </c>
       <c r="M6" t="n">
-        <v>-33419.54138925191</v>
+        <v>-33419.54138925177</v>
       </c>
       <c r="N6" t="n">
-        <v>35631.45342983247</v>
+        <v>35631.45342983255</v>
       </c>
       <c r="O6" t="n">
-        <v>48125.5356291956</v>
+        <v>48125.53562919564</v>
       </c>
       <c r="P6" t="n">
-        <v>48125.53562919557</v>
+        <v>48125.53562919583</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>210.8225853600738</v>
       </c>
       <c r="J2" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="K2" t="n">
         <v>78.97624508410702</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="M2" t="n">
         <v>152.4748451782688</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697.4242080546675</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="F3" t="n">
-        <v>697.4242080546675</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="G3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="H3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="I3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="J3" t="n">
         <v>697.4242080546674</v>
       </c>
       <c r="K3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="L3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="M3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="N3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="O3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="P3" t="n">
-        <v>697.4242080546674</v>
+        <v>697.4242080546676</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>360.5614752084829</v>
+        <v>360.561475208483</v>
       </c>
       <c r="F4" t="n">
         <v>411.5729284143902</v>
@@ -26808,10 +26808,10 @@
         <v>411.5729284143902</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8258767604427</v>
+        <v>455.8258767604424</v>
       </c>
       <c r="J4" t="n">
-        <v>920.5666491196706</v>
+        <v>920.5666491196704</v>
       </c>
       <c r="K4" t="n">
         <v>920.5666491196706</v>
@@ -26820,13 +26820,13 @@
         <v>920.5666491196706</v>
       </c>
       <c r="M4" t="n">
-        <v>651.2805825848775</v>
+        <v>651.2805825848773</v>
       </c>
       <c r="N4" t="n">
         <v>651.2805825848775</v>
       </c>
       <c r="O4" t="n">
-        <v>651.2805825848773</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="P4" t="n">
         <v>651.2805825848773</v>
@@ -26917,7 +26917,7 @@
         <v>131.8463402759668</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
         <v>78.97624508410701</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="M2" t="n">
-        <v>73.49860009416174</v>
+        <v>73.49860009416173</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697.4242080546675</v>
+        <v>697.4242080546676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>360.5614752084829</v>
+        <v>360.561475208483</v>
       </c>
       <c r="F4" t="n">
-        <v>51.01145320590729</v>
+        <v>51.01145320590712</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.25294834605251</v>
+        <v>44.25294834605228</v>
       </c>
       <c r="J4" t="n">
         <v>464.7407723592279</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>91.27540867368975</v>
+        <v>91.2754086736897</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590729</v>
+        <v>51.01145320590734</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>131.8463402759668</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
         <v>78.97624508410701</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>360.5614752084829</v>
+        <v>360.561475208483</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590729</v>
+        <v>51.01145320590712</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28169,10 +28169,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>131.8463402759668</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>131.8463402759668</v>
@@ -28184,10 +28184,10 @@
         <v>131.8463402759668</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I12" t="n">
-        <v>37.74776461340432</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.01880500904052</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>131.8463402759668</v>
       </c>
-      <c r="T12" t="n">
-        <v>28.68542007613323</v>
-      </c>
-      <c r="U12" t="n">
-        <v>131.8463402759668</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>62.78431711689001</v>
       </c>
       <c r="Y12" t="n">
         <v>131.8463402759668</v>
@@ -28269,7 +28269,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J13" t="n">
-        <v>4.443310181571988</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,16 +28293,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.87004878468558</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="T13" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.8463402759668</v>
+        <v>57.97152445460426</v>
       </c>
       <c r="V13" t="n">
         <v>131.8463402759668</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.8463402759668</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>131.8463402759668</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.41285302658181</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I15" t="n">
-        <v>37.74776461340432</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.01880500904052</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>131.8463402759668</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>131.8463402759668</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>131.8463402759668</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.8463402759668</v>
+        <v>128.511750067339</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>131.8463402759668</v>
       </c>
       <c r="D16" t="n">
-        <v>57.97152445460384</v>
+        <v>131.8463402759668</v>
       </c>
       <c r="E16" t="n">
         <v>131.8463402759668</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8463402759668</v>
+        <v>57.97152445460361</v>
       </c>
       <c r="G16" t="n">
         <v>131.8463402759668</v>
@@ -28506,7 +28506,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J16" t="n">
-        <v>4.443310181571988</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T17" t="n">
         <v>210.8225853600738</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>130.2210988190602</v>
+        <v>135.843397168527</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,16 +28697,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>210.8225853600738</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>182.5159409301173</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28725,10 +28725,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,13 +28737,13 @@
         <v>166.7333291472126</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.0455188110877</v>
       </c>
       <c r="I19" t="n">
         <v>117.6295031199658</v>
       </c>
       <c r="J19" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S19" t="n">
-        <v>202.099184810074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>113.1543041194799</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>210.8225853600738</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Y19" t="n">
         <v>210.8225853600738</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>210.8225853600738</v>
-      </c>
-      <c r="X19" t="n">
-        <v>146.3274884252015</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T20" t="n">
         <v>210.8225853600738</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.954955450565</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.843397168527</v>
       </c>
       <c r="H21" t="n">
-        <v>97.74744323520989</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.018805009040506</v>
       </c>
       <c r="S21" t="n">
-        <v>143.8191001499556</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1181924004609</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>110.1589813771963</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28980,7 +28980,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J22" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S22" t="n">
         <v>202.099184810074</v>
@@ -29016,16 +29016,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="W22" t="n">
-        <v>90.88709949134358</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8225853600738</v>
+        <v>121.8777046694797</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T23" t="n">
         <v>210.8225853600738</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.843397168527</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.74744323520989</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I24" t="n">
-        <v>37.74776461340433</v>
+        <v>37.74776461340431</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.018805009040534</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.8191001499556</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>138.714519483287</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>163.635613199014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>131.5381855346051</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J25" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S25" t="n">
-        <v>202.099184810074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.8225853600738</v>
+        <v>197.3811544241875</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>210.8225853600738</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.8225853600738</v>
       </c>
       <c r="Y25" t="n">
         <v>210.8225853600738</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97624508410775</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410708</v>
       </c>
     </row>
     <row r="29">
@@ -29694,7 +29694,7 @@
         <v>78.97624508410702</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97624508410775</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="L31" t="n">
         <v>78.97624508410702</v>
@@ -29709,7 +29709,7 @@
         <v>78.97624508410702</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410766</v>
       </c>
       <c r="Q31" t="n">
         <v>78.97624508410702</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="C32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="D32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="E32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="F32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="G32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="H32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="I32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="T32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="U32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="V32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="W32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="X32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="C34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="D34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="E34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="F34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="G34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="H34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="I34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="J34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="K34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="L34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="M34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="N34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="O34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="P34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="R34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="S34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="T34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="U34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="V34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="W34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="X34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.97624508410702</v>
+        <v>78.97624508410703</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T35" t="n">
         <v>152.4748451782688</v>
@@ -30144,13 +30144,13 @@
         <v>152.4748451782688</v>
       </c>
       <c r="C37" t="n">
-        <v>127.7216516660935</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30165,7 +30165,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J37" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S37" t="n">
-        <v>152.4748451782688</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>152.4748451782688</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>152.4748451782688</v>
       </c>
-      <c r="V37" t="n">
+      <c r="X37" t="n">
         <v>152.4748451782688</v>
       </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
       <c r="Y37" t="n">
-        <v>152.4748451782688</v>
+        <v>133.7625341977927</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T38" t="n">
         <v>152.4748451782688</v>
@@ -30381,19 +30381,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.4748451782688</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>122.8493648823992</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H40" t="n">
         <v>151.0455188110877</v>
@@ -30402,7 +30402,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J40" t="n">
-        <v>4.443310181572002</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S40" t="n">
         <v>152.4748451782688</v>
@@ -30441,7 +30441,7 @@
         <v>152.4748451782688</v>
       </c>
       <c r="W40" t="n">
-        <v>152.4748451782688</v>
+        <v>134.3464722193085</v>
       </c>
       <c r="X40" t="n">
         <v>152.4748451782688</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T41" t="n">
         <v>152.4748451782688</v>
@@ -30627,19 +30627,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H43" t="n">
-        <v>125.2794106752745</v>
+        <v>151.0455188110877</v>
       </c>
       <c r="I43" t="n">
         <v>117.6295031199658</v>
       </c>
       <c r="J43" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S43" t="n">
         <v>152.4748451782688</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4748451782688</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>152.4748451782688</v>
+        <v>133.7625341977928</v>
       </c>
       <c r="V43" t="n">
         <v>152.4748451782688</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>152.4748451782688</v>
-      </c>
-      <c r="X43" t="n">
-        <v>152.4748451782688</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.1304046976193</v>
+        <v>145.1304046976192</v>
       </c>
       <c r="T44" t="n">
         <v>152.4748451782688</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C46" t="n">
         <v>152.4748451782688</v>
@@ -30861,22 +30861,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6678545107556</v>
       </c>
       <c r="G46" t="n">
         <v>152.4748451782688</v>
       </c>
       <c r="H46" t="n">
-        <v>132.3332078306119</v>
+        <v>151.0455188110877</v>
       </c>
       <c r="I46" t="n">
         <v>117.6295031199658</v>
       </c>
       <c r="J46" t="n">
-        <v>4.443310181572002</v>
+        <v>4.443310181571974</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.7448646060485</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -30909,7 +30909,7 @@
         <v>152.4748451782688</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4748451782688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>152.4748451782688</v>
@@ -30921,7 +30921,7 @@
         <v>152.4748451782688</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
   </sheetData>
@@ -31756,34 +31756,34 @@
         <v>28.71355043513512</v>
       </c>
       <c r="I11" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J11" t="n">
         <v>237.9618407171049</v>
       </c>
       <c r="K11" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L11" t="n">
-        <v>442.4473194475857</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M11" t="n">
-        <v>492.307893357102</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N11" t="n">
-        <v>500.2739497636762</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O11" t="n">
-        <v>472.3945046627974</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P11" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q11" t="n">
         <v>302.7697224022652</v>
       </c>
       <c r="R11" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S11" t="n">
         <v>63.88966488862609</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H12" t="n">
         <v>14.48800100128659</v>
       </c>
       <c r="I12" t="n">
-        <v>51.64886823801076</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J12" t="n">
         <v>141.7284421292981</v>
@@ -31844,34 +31844,34 @@
         <v>242.2364817731009</v>
       </c>
       <c r="L12" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M12" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N12" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O12" t="n">
-        <v>356.9167076824674</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P12" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q12" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R12" t="n">
-        <v>93.13902914360261</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S12" t="n">
         <v>27.86407095388222</v>
       </c>
       <c r="T12" t="n">
-        <v>6.046536294360747</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09869210491339639</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H13" t="n">
         <v>11.18165369635189</v>
@@ -31917,7 +31917,7 @@
         <v>37.82097180729247</v>
       </c>
       <c r="J13" t="n">
-        <v>88.91586993510079</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K13" t="n">
         <v>146.1160881793221</v>
@@ -31929,28 +31929,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N13" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O13" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P13" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R13" t="n">
-        <v>56.54852677112105</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S13" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T13" t="n">
-        <v>5.373596357142518</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,34 +31993,34 @@
         <v>28.71355043513512</v>
       </c>
       <c r="I14" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J14" t="n">
         <v>237.9618407171049</v>
       </c>
       <c r="K14" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L14" t="n">
-        <v>442.4473194475857</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M14" t="n">
-        <v>492.307893357102</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N14" t="n">
-        <v>500.2739497636762</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O14" t="n">
-        <v>472.3945046627974</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P14" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q14" t="n">
         <v>302.7697224022652</v>
       </c>
       <c r="R14" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S14" t="n">
         <v>63.88966488862609</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H15" t="n">
         <v>14.48800100128659</v>
       </c>
       <c r="I15" t="n">
-        <v>51.64886823801076</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J15" t="n">
         <v>141.7284421292981</v>
@@ -32081,34 +32081,34 @@
         <v>242.2364817731009</v>
       </c>
       <c r="L15" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M15" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N15" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O15" t="n">
-        <v>356.9167076824674</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P15" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q15" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R15" t="n">
-        <v>93.13902914360261</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S15" t="n">
         <v>27.86407095388222</v>
       </c>
       <c r="T15" t="n">
-        <v>6.046536294360747</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09869210491339639</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H16" t="n">
         <v>11.18165369635189</v>
@@ -32154,7 +32154,7 @@
         <v>37.82097180729247</v>
       </c>
       <c r="J16" t="n">
-        <v>88.91586993510079</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K16" t="n">
         <v>146.1160881793221</v>
@@ -32166,28 +32166,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N16" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O16" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P16" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R16" t="n">
-        <v>56.54852677112105</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S16" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T16" t="n">
-        <v>5.373596357142518</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H17" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I17" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J17" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K17" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L17" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M17" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N17" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O17" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P17" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q17" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R17" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S17" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T17" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H18" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I18" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J18" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K18" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L18" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M18" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N18" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O18" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P18" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q18" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R18" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S18" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T18" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H19" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I19" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J19" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K19" t="n">
         <v>146.1160881793221</v>
@@ -32403,28 +32403,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N19" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O19" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P19" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q19" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R19" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S19" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T19" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H20" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I20" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J20" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K20" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L20" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M20" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N20" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O20" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P20" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q20" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R20" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S20" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T20" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H21" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I21" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J21" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K21" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L21" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M21" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N21" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O21" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P21" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q21" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R21" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S21" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T21" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H22" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I22" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J22" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K22" t="n">
         <v>146.1160881793221</v>
@@ -32640,28 +32640,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N22" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O22" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P22" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q22" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R22" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S22" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T22" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H23" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I23" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J23" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K23" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L23" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M23" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O23" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P23" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q23" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R23" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S23" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T23" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H24" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I24" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J24" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K24" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L24" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M24" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O24" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P24" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q24" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R24" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S24" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T24" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H25" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I25" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J25" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K25" t="n">
         <v>146.1160881793221</v>
@@ -32877,28 +32877,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N25" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O25" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P25" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q25" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R25" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S25" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T25" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H29" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I29" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J29" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K29" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L29" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M29" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N29" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O29" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P29" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R29" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S29" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T29" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H30" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I30" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J30" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K30" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L30" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M30" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O30" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P30" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q30" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R30" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S30" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T30" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H31" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I31" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J31" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K31" t="n">
         <v>146.1160881793221</v>
@@ -33351,28 +33351,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N31" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O31" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P31" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q31" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R31" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S31" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T31" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H32" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I32" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J32" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K32" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L32" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M32" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N32" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O32" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P32" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R32" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S32" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T32" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H33" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I33" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J33" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K33" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L33" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M33" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O33" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P33" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q33" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R33" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S33" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T33" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H34" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I34" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J34" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K34" t="n">
         <v>146.1160881793221</v>
@@ -33588,28 +33588,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N34" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O34" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P34" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q34" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R34" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S34" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T34" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H35" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I35" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J35" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K35" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L35" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M35" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N35" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O35" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P35" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q35" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R35" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S35" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T35" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H36" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I36" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J36" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K36" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L36" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M36" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O36" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P36" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q36" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R36" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S36" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T36" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H37" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I37" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J37" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K37" t="n">
         <v>146.1160881793221</v>
@@ -33825,28 +33825,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N37" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O37" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P37" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q37" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R37" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S37" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T37" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H38" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I38" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J38" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K38" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L38" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M38" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N38" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O38" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P38" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q38" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R38" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S38" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T38" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H39" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I39" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J39" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K39" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L39" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M39" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O39" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P39" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q39" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R39" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S39" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T39" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H40" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I40" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J40" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K40" t="n">
         <v>146.1160881793221</v>
@@ -34062,28 +34062,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N40" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O40" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P40" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q40" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R40" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S40" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T40" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H41" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I41" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J41" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K41" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L41" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M41" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N41" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O41" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P41" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q41" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R41" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S41" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T41" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H42" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I42" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J42" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K42" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L42" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M42" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O42" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P42" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q42" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R42" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S42" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T42" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H43" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I43" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J43" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K43" t="n">
         <v>146.1160881793221</v>
@@ -34299,28 +34299,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N43" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O43" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P43" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q43" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R43" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S43" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T43" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.803715409264992</v>
+        <v>2.803715409264993</v>
       </c>
       <c r="H44" t="n">
-        <v>28.71355043513511</v>
+        <v>28.71355043513512</v>
       </c>
       <c r="I44" t="n">
-        <v>108.0902383156887</v>
+        <v>108.0902383156888</v>
       </c>
       <c r="J44" t="n">
-        <v>237.9618407171048</v>
+        <v>237.9618407171049</v>
       </c>
       <c r="K44" t="n">
-        <v>356.6431139912921</v>
+        <v>356.6431139912922</v>
       </c>
       <c r="L44" t="n">
-        <v>442.4473194475856</v>
+        <v>442.4473194475858</v>
       </c>
       <c r="M44" t="n">
-        <v>492.3078933571019</v>
+        <v>492.3078933571021</v>
       </c>
       <c r="N44" t="n">
-        <v>500.2739497636761</v>
+        <v>500.2739497636763</v>
       </c>
       <c r="O44" t="n">
-        <v>472.3945046627973</v>
+        <v>472.3945046627975</v>
       </c>
       <c r="P44" t="n">
-        <v>403.1777804965678</v>
+        <v>403.1777804965679</v>
       </c>
       <c r="Q44" t="n">
-        <v>302.7697224022651</v>
+        <v>302.7697224022652</v>
       </c>
       <c r="R44" t="n">
-        <v>176.1188880772422</v>
+        <v>176.1188880772423</v>
       </c>
       <c r="S44" t="n">
-        <v>63.88966488862608</v>
+        <v>63.88966488862609</v>
       </c>
       <c r="T44" t="n">
         <v>12.27326420405751</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2242972327411993</v>
+        <v>0.2242972327411994</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.500119994683624</v>
+        <v>1.500119994683625</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48800100128658</v>
+        <v>14.48800100128659</v>
       </c>
       <c r="I45" t="n">
-        <v>51.64886823801075</v>
+        <v>51.64886823801077</v>
       </c>
       <c r="J45" t="n">
-        <v>141.728442129298</v>
+        <v>141.7284421292981</v>
       </c>
       <c r="K45" t="n">
-        <v>242.2364817731008</v>
+        <v>242.2364817731009</v>
       </c>
       <c r="L45" t="n">
-        <v>325.7168435825124</v>
+        <v>325.7168435825125</v>
       </c>
       <c r="M45" t="n">
-        <v>380.0961933897937</v>
+        <v>380.0961933897938</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1562086172993</v>
+        <v>390.1562086172994</v>
       </c>
       <c r="O45" t="n">
-        <v>356.9167076824673</v>
+        <v>356.9167076824675</v>
       </c>
       <c r="P45" t="n">
-        <v>286.4571242479633</v>
+        <v>286.4571242479634</v>
       </c>
       <c r="Q45" t="n">
         <v>191.4890014266325</v>
       </c>
       <c r="R45" t="n">
-        <v>93.1390291436026</v>
+        <v>93.13902914360263</v>
       </c>
       <c r="S45" t="n">
-        <v>27.86407095388221</v>
+        <v>27.86407095388222</v>
       </c>
       <c r="T45" t="n">
-        <v>6.046536294360746</v>
+        <v>6.046536294360748</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09869210491339636</v>
+        <v>0.0986921049133964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.257650211246121</v>
+        <v>1.257650211246122</v>
       </c>
       <c r="H46" t="n">
         <v>11.18165369635189</v>
       </c>
       <c r="I46" t="n">
-        <v>37.82097180729246</v>
+        <v>37.82097180729247</v>
       </c>
       <c r="J46" t="n">
-        <v>88.91586993510077</v>
+        <v>88.9158699351008</v>
       </c>
       <c r="K46" t="n">
         <v>146.1160881793221</v>
@@ -34536,28 +34536,28 @@
         <v>197.1423872046988</v>
       </c>
       <c r="N46" t="n">
-        <v>192.4547818718725</v>
+        <v>192.4547818718726</v>
       </c>
       <c r="O46" t="n">
-        <v>177.76314076777</v>
+        <v>177.7631407677701</v>
       </c>
       <c r="P46" t="n">
-        <v>152.107076458349</v>
+        <v>152.1070764583491</v>
       </c>
       <c r="Q46" t="n">
         <v>105.3110554162548</v>
       </c>
       <c r="R46" t="n">
-        <v>56.54852677112104</v>
+        <v>56.54852677112106</v>
       </c>
       <c r="S46" t="n">
-        <v>21.91741322689831</v>
+        <v>21.91741322689832</v>
       </c>
       <c r="T46" t="n">
-        <v>5.373596357142517</v>
+        <v>5.373596357142519</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0685991024316067</v>
+        <v>0.06859910243160672</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.91593619041862</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K11" t="n">
         <v>136.5532629463116</v>
       </c>
       <c r="L11" t="n">
-        <v>206.6809044775985</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M11" t="n">
-        <v>261.9616601298293</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N11" t="n">
-        <v>270.8608861670853</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O11" t="n">
-        <v>242.2962932411107</v>
+        <v>242.2962932411108</v>
       </c>
       <c r="P11" t="n">
         <v>171.9447847412983</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.4640325278157</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.89081546263137</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K12" t="n">
         <v>104.3950427987419</v>
       </c>
       <c r="L12" t="n">
-        <v>187.1624638026382</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M12" t="n">
-        <v>360.5614752084829</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N12" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O12" t="n">
         <v>214.320463238023</v>
       </c>
       <c r="P12" t="n">
-        <v>236.0257760363733</v>
+        <v>152.4827168336332</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.50722734061097</v>
+        <v>257.6496022840589</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L13" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M13" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N13" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O13" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P13" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.1490121645604</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.91593619041862</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K14" t="n">
         <v>136.5532629463116</v>
       </c>
       <c r="L14" t="n">
-        <v>408.665648484827</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M14" t="n">
-        <v>261.9616601298293</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N14" t="n">
-        <v>270.8608861670853</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O14" t="n">
-        <v>242.2962932411107</v>
+        <v>411.5729284143902</v>
       </c>
       <c r="P14" t="n">
         <v>171.9447847412983</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.4640325278157</v>
+        <v>113.1721413617644</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.89081546263137</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K15" t="n">
-        <v>368.8602798113205</v>
+        <v>104.3950427987419</v>
       </c>
       <c r="L15" t="n">
-        <v>330.8243457407362</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M15" t="n">
-        <v>237.9621594677754</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N15" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O15" t="n">
-        <v>214.320463238023</v>
+        <v>411.5729284143902</v>
       </c>
       <c r="P15" t="n">
-        <v>152.4827168336331</v>
+        <v>363.3573706079418</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.50722734061097</v>
+        <v>51.50722734061102</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L16" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M16" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N16" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O16" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P16" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.1490121645604</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>56.91593619041856</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K17" t="n">
-        <v>136.5532629463115</v>
+        <v>136.5532629463116</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6809044775984</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M17" t="n">
-        <v>261.9616601298292</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N17" t="n">
-        <v>270.8608861670852</v>
+        <v>411.5729284143902</v>
       </c>
       <c r="O17" t="n">
-        <v>242.2962932411106</v>
+        <v>303.5689950010338</v>
       </c>
       <c r="P17" t="n">
-        <v>171.9447847412982</v>
+        <v>171.9447847412983</v>
       </c>
       <c r="Q17" t="n">
-        <v>282.4487765350447</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.89081546263134</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K18" t="n">
-        <v>104.3950427987419</v>
+        <v>368.8602798113205</v>
       </c>
       <c r="L18" t="n">
-        <v>187.1624638026382</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M18" t="n">
-        <v>237.9621594677753</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N18" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O18" t="n">
-        <v>363.3573706079428</v>
+        <v>214.320463238023</v>
       </c>
       <c r="P18" t="n">
-        <v>411.5729284143902</v>
+        <v>296.1445987717307</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.50722734061094</v>
+        <v>51.50722734061102</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L19" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M19" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N19" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O19" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P19" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.91593619041856</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K20" t="n">
-        <v>136.5532629463115</v>
+        <v>338.5380069535394</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6809044775984</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M20" t="n">
-        <v>411.5729284143902</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N20" t="n">
-        <v>270.8608861670852</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O20" t="n">
-        <v>242.2962932411106</v>
+        <v>242.2962932411108</v>
       </c>
       <c r="P20" t="n">
-        <v>224.3182604639664</v>
+        <v>171.9447847412983</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.46403252781565</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.99670085494146</v>
+        <v>140.9818508030402</v>
       </c>
       <c r="K21" t="n">
         <v>104.3950427987419</v>
       </c>
       <c r="L21" t="n">
+        <v>271.9460822365384</v>
+      </c>
+      <c r="M21" t="n">
+        <v>237.9621594677755</v>
+      </c>
+      <c r="N21" t="n">
+        <v>258.8144965339661</v>
+      </c>
+      <c r="O21" t="n">
         <v>411.5729284143902</v>
       </c>
-      <c r="M21" t="n">
-        <v>411.5729284143902</v>
-      </c>
-      <c r="N21" t="n">
-        <v>258.814496533966</v>
-      </c>
-      <c r="O21" t="n">
-        <v>214.3204632380229</v>
-      </c>
       <c r="P21" t="n">
-        <v>152.482716833633</v>
+        <v>152.4827168336332</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.50722734061094</v>
+        <v>51.50722734061102</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L22" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M22" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N22" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O22" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P22" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.91593619041856</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K23" t="n">
-        <v>136.5532629463115</v>
+        <v>136.5532629463116</v>
       </c>
       <c r="L23" t="n">
-        <v>370.3598604367336</v>
+        <v>300.0083519369196</v>
       </c>
       <c r="M23" t="n">
-        <v>261.9616601298292</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N23" t="n">
-        <v>270.8608861670852</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O23" t="n">
-        <v>455.8258767604427</v>
+        <v>242.2962932411108</v>
       </c>
       <c r="P23" t="n">
-        <v>171.9447847412982</v>
+        <v>455.8258767604424</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.46403252781565</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.9818508030402</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K24" t="n">
         <v>104.3950427987419</v>
       </c>
       <c r="L24" t="n">
-        <v>187.1624638026382</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M24" t="n">
-        <v>237.9621594677753</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N24" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O24" t="n">
-        <v>455.8258767604427</v>
+        <v>455.8258767604424</v>
       </c>
       <c r="P24" t="n">
-        <v>158.1598946568704</v>
+        <v>284.250929997278</v>
       </c>
       <c r="Q24" t="n">
-        <v>261.58451507646</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L25" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M25" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N25" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O25" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P25" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>226.0125513624923</v>
+        <v>141.8263493173175</v>
       </c>
       <c r="K26" t="n">
         <v>460.6986755174763</v>
@@ -36601,10 +36601,10 @@
         <v>624.3421190280488</v>
       </c>
       <c r="M26" t="n">
-        <v>402.2570578254072</v>
+        <v>711.4751936226617</v>
       </c>
       <c r="N26" t="n">
-        <v>708.2078105790694</v>
+        <v>270.8608861670852</v>
       </c>
       <c r="O26" t="n">
         <v>623.0964745038559</v>
@@ -36613,7 +36613,7 @@
         <v>493.7434929127809</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.46403252781565</v>
+        <v>292.7790231877203</v>
       </c>
       <c r="R26" t="n">
         <v>26.24977013609254</v>
@@ -36674,25 +36674,25 @@
         <v>14.89081546263134</v>
       </c>
       <c r="K27" t="n">
-        <v>104.3950427987419</v>
+        <v>368.8602798113204</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0028091060974</v>
+        <v>187.1624638026382</v>
       </c>
       <c r="M27" t="n">
-        <v>351.189698432398</v>
+        <v>703.6672232177752</v>
       </c>
       <c r="N27" t="n">
-        <v>738.1568708775195</v>
+        <v>258.814496533966</v>
       </c>
       <c r="O27" t="n">
-        <v>608.1827825147525</v>
+        <v>312.8826839880225</v>
       </c>
       <c r="P27" t="n">
-        <v>152.482716833633</v>
+        <v>470.9454854735702</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.50722734061094</v>
+        <v>261.58451507646</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.53293490253502</v>
+        <v>74.53293490253508</v>
       </c>
       <c r="K28" t="n">
-        <v>202.8228414375462</v>
+        <v>202.8228414375463</v>
       </c>
       <c r="L28" t="n">
-        <v>293.5445572055064</v>
+        <v>293.5445572055057</v>
       </c>
       <c r="M28" t="n">
-        <v>315.7025092506464</v>
+        <v>315.7025092506465</v>
       </c>
       <c r="N28" t="n">
-        <v>315.5631993352081</v>
+        <v>315.5631993352082</v>
       </c>
       <c r="O28" t="n">
-        <v>281.3245137659167</v>
+        <v>281.3245137659168</v>
       </c>
       <c r="P28" t="n">
-        <v>228.3618808073495</v>
+        <v>228.3618808073496</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.12525724866741</v>
+        <v>98.12525724866747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.0125513624923</v>
+        <v>226.0125513624924</v>
       </c>
       <c r="K29" t="n">
-        <v>460.6986755174763</v>
+        <v>460.6986755174764</v>
       </c>
       <c r="L29" t="n">
-        <v>624.3421190280488</v>
+        <v>552.3225260637217</v>
       </c>
       <c r="M29" t="n">
-        <v>627.2889915774874</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N29" t="n">
-        <v>270.8608861670852</v>
+        <v>708.2078105790695</v>
       </c>
       <c r="O29" t="n">
-        <v>623.0964745038559</v>
+        <v>623.0964745038561</v>
       </c>
       <c r="P29" t="n">
-        <v>493.7434929127809</v>
+        <v>493.743492912781</v>
       </c>
       <c r="Q29" t="n">
-        <v>292.7790231877203</v>
+        <v>292.7790231877204</v>
       </c>
       <c r="R29" t="n">
-        <v>26.24977013609254</v>
+        <v>26.24977013609259</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.89081546263134</v>
+        <v>140.9818508030402</v>
       </c>
       <c r="K30" t="n">
-        <v>368.8602798113204</v>
+        <v>104.3950427987419</v>
       </c>
       <c r="L30" t="n">
-        <v>187.1624638026382</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M30" t="n">
-        <v>703.6672232177752</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N30" t="n">
-        <v>258.814496533966</v>
+        <v>738.1568708775196</v>
       </c>
       <c r="O30" t="n">
-        <v>312.8826839880227</v>
+        <v>608.1827825147525</v>
       </c>
       <c r="P30" t="n">
-        <v>470.9454854735702</v>
+        <v>300.3822780254557</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.58451507646</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.53293490253502</v>
+        <v>74.53293490253505</v>
       </c>
       <c r="K31" t="n">
-        <v>202.822841437547</v>
+        <v>202.8228414375463</v>
       </c>
       <c r="L31" t="n">
-        <v>293.5445572055056</v>
+        <v>293.5445572055057</v>
       </c>
       <c r="M31" t="n">
-        <v>315.7025092506464</v>
+        <v>315.7025092506465</v>
       </c>
       <c r="N31" t="n">
-        <v>315.5631993352081</v>
+        <v>315.5631993352082</v>
       </c>
       <c r="O31" t="n">
-        <v>281.3245137659167</v>
+        <v>281.3245137659168</v>
       </c>
       <c r="P31" t="n">
-        <v>228.3618808073495</v>
+        <v>228.3618808073502</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.12525724866741</v>
+        <v>98.12525724866744</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>226.0125513624923</v>
+        <v>85.27960616807808</v>
       </c>
       <c r="K32" t="n">
-        <v>460.6986755174763</v>
+        <v>460.6986755174764</v>
       </c>
       <c r="L32" t="n">
-        <v>624.3421190280488</v>
+        <v>624.342119028049</v>
       </c>
       <c r="M32" t="n">
-        <v>711.4751936226617</v>
+        <v>711.4751936226619</v>
       </c>
       <c r="N32" t="n">
-        <v>708.2078105790694</v>
+        <v>708.2078105790695</v>
       </c>
       <c r="O32" t="n">
-        <v>242.2962932411106</v>
+        <v>242.2962932411108</v>
       </c>
       <c r="P32" t="n">
-        <v>379.2603178544596</v>
+        <v>493.743492912781</v>
       </c>
       <c r="Q32" t="n">
-        <v>292.7790231877203</v>
+        <v>292.7790231877204</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.24977013609259</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.89081546263134</v>
+        <v>140.9818508030402</v>
       </c>
       <c r="K33" t="n">
-        <v>104.3950427987419</v>
+        <v>368.8602798113205</v>
       </c>
       <c r="L33" t="n">
         <v>558.0028091060974</v>
       </c>
       <c r="M33" t="n">
-        <v>703.6672232177752</v>
+        <v>305.2980633239061</v>
       </c>
       <c r="N33" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O33" t="n">
-        <v>214.3204632380229</v>
+        <v>214.320463238023</v>
       </c>
       <c r="P33" t="n">
-        <v>463.1325979326896</v>
+        <v>470.9454854735703</v>
       </c>
       <c r="Q33" t="n">
-        <v>261.58451507646</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.53293490253502</v>
+        <v>74.53293490253506</v>
       </c>
       <c r="K34" t="n">
-        <v>202.8228414375462</v>
+        <v>202.8228414375463</v>
       </c>
       <c r="L34" t="n">
-        <v>293.5445572055056</v>
+        <v>293.5445572055057</v>
       </c>
       <c r="M34" t="n">
-        <v>315.7025092506464</v>
+        <v>315.7025092506465</v>
       </c>
       <c r="N34" t="n">
-        <v>315.5631993352081</v>
+        <v>315.5631993352082</v>
       </c>
       <c r="O34" t="n">
-        <v>281.3245137659167</v>
+        <v>281.3245137659168</v>
       </c>
       <c r="P34" t="n">
-        <v>228.3618808073495</v>
+        <v>228.3618808073496</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.12525724866741</v>
+        <v>98.12525724866745</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26729395835325</v>
+        <v>226.0125513624924</v>
       </c>
       <c r="K35" t="n">
-        <v>136.5532629463115</v>
+        <v>136.5532629463116</v>
       </c>
       <c r="L35" t="n">
-        <v>624.3421190280488</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M35" t="n">
-        <v>651.2805825848775</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N35" t="n">
-        <v>270.8608861670852</v>
+        <v>651.2805825848773</v>
       </c>
       <c r="O35" t="n">
-        <v>242.2962932411106</v>
+        <v>623.0964745038561</v>
       </c>
       <c r="P35" t="n">
-        <v>493.7434929127809</v>
+        <v>392.7584948336016</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.46403252781565</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.89081546263134</v>
+        <v>140.9818508030402</v>
       </c>
       <c r="K36" t="n">
-        <v>368.8602798113204</v>
+        <v>104.3950427987419</v>
       </c>
       <c r="L36" t="n">
         <v>558.0028091060974</v>
       </c>
       <c r="M36" t="n">
-        <v>651.2805825848775</v>
+        <v>237.9621594677755</v>
       </c>
       <c r="N36" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O36" t="n">
-        <v>214.3204632380229</v>
+        <v>608.1827825147525</v>
       </c>
       <c r="P36" t="n">
-        <v>461.1312892888571</v>
+        <v>470.9454854735703</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.50722734061094</v>
+        <v>199.5233366684403</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L37" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M37" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N37" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O37" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P37" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.783095937639</v>
+        <v>226.0125513624924</v>
       </c>
       <c r="K38" t="n">
-        <v>460.6986755174763</v>
+        <v>136.5532629463116</v>
       </c>
       <c r="L38" t="n">
-        <v>206.6809044775984</v>
+        <v>206.6809044775986</v>
       </c>
       <c r="M38" t="n">
-        <v>651.2805825848775</v>
+        <v>624.630305843928</v>
       </c>
       <c r="N38" t="n">
-        <v>270.8608861670852</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O38" t="n">
-        <v>242.2962932411106</v>
+        <v>623.0964745038561</v>
       </c>
       <c r="P38" t="n">
-        <v>493.7434929127809</v>
+        <v>171.9447847412983</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.46403252781565</v>
+        <v>292.7790231877204</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.24977013609259</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>140.9818508030402</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K39" t="n">
         <v>104.3950427987419</v>
       </c>
       <c r="L39" t="n">
-        <v>187.1624638026382</v>
+        <v>558.0028091060974</v>
       </c>
       <c r="M39" t="n">
-        <v>651.2805825848775</v>
+        <v>621.8510182659196</v>
       </c>
       <c r="N39" t="n">
         <v>651.2805825848775</v>
       </c>
       <c r="O39" t="n">
-        <v>214.3204632380229</v>
+        <v>214.320463238023</v>
       </c>
       <c r="P39" t="n">
-        <v>470.9454854735702</v>
+        <v>152.4827168336332</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.4414920806159</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L40" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M40" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N40" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O40" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P40" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>226.0125513624923</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K41" t="n">
-        <v>136.5532629463115</v>
+        <v>460.6986755174764</v>
       </c>
       <c r="L41" t="n">
-        <v>624.3421190280488</v>
+        <v>624.342119028049</v>
       </c>
       <c r="M41" t="n">
-        <v>651.2805825848773</v>
+        <v>261.9616601298294</v>
       </c>
       <c r="N41" t="n">
-        <v>270.8608861670852</v>
+        <v>270.8608861670854</v>
       </c>
       <c r="O41" t="n">
-        <v>242.2962932411106</v>
+        <v>303.5713907568354</v>
       </c>
       <c r="P41" t="n">
-        <v>171.9447847412982</v>
+        <v>493.743492912781</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.5174832951587</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.24977013609259</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.89081546263134</v>
+        <v>140.9818508030402</v>
       </c>
       <c r="K42" t="n">
-        <v>368.8602798113204</v>
+        <v>104.3950427987419</v>
       </c>
       <c r="L42" t="n">
         <v>558.0028091060974</v>
       </c>
       <c r="M42" t="n">
-        <v>247.6040671234357</v>
+        <v>494.3637496996924</v>
       </c>
       <c r="N42" t="n">
-        <v>258.814496533966</v>
+        <v>258.8144965339661</v>
       </c>
       <c r="O42" t="n">
         <v>608.1827825147525</v>
       </c>
       <c r="P42" t="n">
-        <v>470.9454854735702</v>
+        <v>152.4827168336332</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.50722734061094</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L43" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M43" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N43" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O43" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P43" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.91593619041856</v>
+        <v>56.91593619041865</v>
       </c>
       <c r="K44" t="n">
-        <v>136.5532629463115</v>
+        <v>460.6986755174764</v>
       </c>
       <c r="L44" t="n">
-        <v>620.4437066598904</v>
+        <v>624.342119028049</v>
       </c>
       <c r="M44" t="n">
+        <v>261.9616601298294</v>
+      </c>
+      <c r="N44" t="n">
         <v>651.2805825848773</v>
       </c>
-      <c r="N44" t="n">
-        <v>270.8608861670852</v>
-      </c>
       <c r="O44" t="n">
-        <v>242.2962932411106</v>
+        <v>242.2962932411108</v>
       </c>
       <c r="P44" t="n">
-        <v>493.7434929127809</v>
+        <v>174.5988940107132</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.46403252781565</v>
+        <v>80.46403252781576</v>
       </c>
       <c r="R44" t="n">
-        <v>26.24977013609254</v>
+        <v>26.24977013609259</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.89081546263134</v>
+        <v>14.89081546263139</v>
       </c>
       <c r="K45" t="n">
-        <v>368.8602798113204</v>
+        <v>368.8602798113205</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0028091060974</v>
+        <v>187.1624638026383</v>
       </c>
       <c r="M45" t="n">
+        <v>409.7633579168619</v>
+      </c>
+      <c r="N45" t="n">
         <v>651.2805825848773</v>
       </c>
-      <c r="N45" t="n">
-        <v>258.814496533966</v>
-      </c>
       <c r="O45" t="n">
-        <v>312.8917479573974</v>
+        <v>214.320463238023</v>
       </c>
       <c r="P45" t="n">
-        <v>152.482716833633</v>
+        <v>470.9454854735703</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.58451507646</v>
+        <v>261.5845150764601</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>123.8465963534392</v>
+        <v>123.8465963534393</v>
       </c>
       <c r="L46" t="n">
-        <v>214.5683121213986</v>
+        <v>214.5683121213987</v>
       </c>
       <c r="M46" t="n">
         <v>236.7262641665394</v>
       </c>
       <c r="N46" t="n">
-        <v>236.5869542511011</v>
+        <v>236.5869542511012</v>
       </c>
       <c r="O46" t="n">
         <v>202.3482686818097</v>
       </c>
       <c r="P46" t="n">
-        <v>149.3856357232425</v>
+        <v>149.3856357232426</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.14901216456039</v>
+        <v>19.14901216456042</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
